--- a/resources/usage_fan_in_file_2.xlsx
+++ b/resources/usage_fan_in_file_2.xlsx
@@ -1,31 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27510"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/camilapaiva/Documents/GitHub/db-mining/resources/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="500" windowWidth="33600" windowHeight="20500"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$R$318</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Sheet1!$A$1:$R$318</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -77,7 +64,7 @@
     <t>Dependencies Test</t>
   </si>
   <si>
-    <t>Dependencies Code</t>
+    <t>Dependencies</t>
   </si>
   <si>
     <t>Dependencies XML</t>
@@ -1034,7 +1021,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1100,39 +1088,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1143,10 +1135,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1184,71 +1176,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1276,7 +1268,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -1299,11 +1291,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -1312,13 +1304,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1328,7 +1320,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1337,7 +1329,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1346,7 +1338,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1354,10 +1346,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -1423,24 +1415,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:R318"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2:R317"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="11" width="12.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="18" width="12.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="7" width="34.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="25.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="8" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="8" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="8" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="8" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="8" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="8" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="8" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="9" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="9" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="9" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="9" width="21.005" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="9" width="20.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="9" width="20.005" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="9" width="12.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1496,7 +1500,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="4" t="s">
         <v>18</v>
       </c>
@@ -1525,30 +1529,28 @@
       </c>
       <c r="K2" s="5">
         <f>SUM(C2+D2+F2)</f>
-        <v>193</v>
       </c>
       <c r="L2" s="6">
-        <v>0.67733990147783252</v>
+        <v>0.6773399014778325</v>
       </c>
       <c r="M2" s="6">
-        <v>0.90311986863710991</v>
+        <v>0.9031198686371099</v>
       </c>
       <c r="N2" s="6">
-        <v>1.9909688013136291</v>
+        <v>1.990968801313629</v>
       </c>
       <c r="O2" s="6">
         <v>1.067323481116585</v>
       </c>
       <c r="P2" s="6">
-        <v>4.3103448275862073</v>
+        <v>4.310344827586207</v>
       </c>
       <c r="Q2" s="6"/>
       <c r="R2" s="6">
         <f>K2/J2*100</f>
-        <v>3.9614121510673237</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="4" t="s">
         <v>19</v>
       </c>
@@ -1574,29 +1576,27 @@
         <v>6172</v>
       </c>
       <c r="K3" s="5">
-        <f t="shared" ref="K3:K4" si="0">SUM(C3+D3+F3)</f>
-        <v>100</v>
+        <f>SUM(C3+D3+F3)</f>
       </c>
       <c r="L3" s="6">
-        <v>0.55087491898898244</v>
+        <v>0.5508749189889824</v>
       </c>
       <c r="M3" s="6">
         <v>0.1944264419961115</v>
       </c>
       <c r="N3" s="6"/>
       <c r="O3" s="6">
-        <v>1.4257939079714841</v>
+        <v>1.425793907971484</v>
       </c>
       <c r="P3" s="6">
-        <v>0.72909915748541798</v>
+        <v>0.729099157485418</v>
       </c>
       <c r="Q3" s="6"/>
       <c r="R3" s="6">
-        <f t="shared" ref="R3:R4" si="1">K3/J3*100</f>
-        <v>1.6202203499675956</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+        <f>K3/J3*100</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -1622,29 +1622,27 @@
         <v>1535</v>
       </c>
       <c r="K4" s="5">
-        <f t="shared" si="0"/>
-        <v>33</v>
+        <f>SUM(C4+D4+F4)</f>
       </c>
       <c r="L4" s="6"/>
       <c r="M4" s="6">
-        <v>6.5146579804560262E-2</v>
+        <v>0.06514657980456026</v>
       </c>
       <c r="N4" s="6">
-        <v>2.0195439739413681</v>
+        <v>2.019543973941368</v>
       </c>
       <c r="O4" s="6">
-        <v>6.5146579804560262E-2</v>
+        <v>0.06514657980456026</v>
       </c>
       <c r="P4" s="6">
-        <v>0.26058631921824099</v>
+        <v>0.260586319218241</v>
       </c>
       <c r="Q4" s="6"/>
       <c r="R4" s="6">
-        <f t="shared" si="1"/>
-        <v>2.1498371335504887</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f>K4/J4*100</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
       <c r="A5" s="4" t="s">
         <v>21</v>
       </c>
@@ -1667,14 +1665,14 @@
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="N5" s="6">
-        <v>0.31007751937984501</v>
+        <v>0.310077519379845</v>
       </c>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
     </row>
-    <row r="6" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="4" t="s">
         <v>22</v>
       </c>
@@ -1699,26 +1697,24 @@
       </c>
       <c r="K6" s="5">
         <f>SUM(C6+D6+F6)</f>
-        <v>12</v>
       </c>
       <c r="L6" s="6"/>
       <c r="M6" s="6">
-        <v>0.46415678184631248</v>
+        <v>0.4641567818463125</v>
       </c>
       <c r="N6" s="6"/>
       <c r="O6" s="6">
-        <v>0.15471892728210421</v>
+        <v>0.1547189272821042</v>
       </c>
       <c r="P6" s="6">
-        <v>0.56730273336771531</v>
+        <v>0.5673027333677153</v>
       </c>
       <c r="Q6" s="6"/>
       <c r="R6" s="6">
         <f>K6/J6*100</f>
-        <v>0.61887570912841672</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="4" t="s">
         <v>23</v>
       </c>
@@ -1744,7 +1740,7 @@
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
     </row>
-    <row r="8" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
       <c r="A8" s="4" t="s">
         <v>24</v>
       </c>
@@ -1770,7 +1766,7 @@
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
     </row>
-    <row r="9" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="4" t="s">
         <v>25</v>
       </c>
@@ -1794,7 +1790,7 @@
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
     </row>
-    <row r="10" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="4" t="s">
         <v>26</v>
       </c>
@@ -1820,7 +1816,7 @@
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
     </row>
-    <row r="11" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="4" t="s">
         <v>27</v>
       </c>
@@ -1841,14 +1837,14 @@
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6">
-        <v>9.0909090909090912E-2</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
     </row>
-    <row r="12" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="4" t="s">
         <v>28</v>
       </c>
@@ -1872,7 +1868,7 @@
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
     </row>
-    <row r="13" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="4" t="s">
         <v>29</v>
       </c>
@@ -1893,24 +1889,22 @@
       </c>
       <c r="K13" s="5">
         <f>SUM(C13+D13+F13)</f>
-        <v>4</v>
       </c>
       <c r="L13" s="6">
-        <v>0.24110910186859549</v>
+        <v>0.2411091018685955</v>
       </c>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
       <c r="O13" s="6">
-        <v>0.24110910186859549</v>
+        <v>0.2411091018685955</v>
       </c>
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
       <c r="R13" s="6">
         <f>K13/J13*100</f>
-        <v>0.24110910186859552</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="4" t="s">
         <v>30</v>
       </c>
@@ -1940,7 +1934,7 @@
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
     </row>
-    <row r="15" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="4" t="s">
         <v>31</v>
       </c>
@@ -1966,7 +1960,7 @@
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
     </row>
-    <row r="16" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
       <c r="A16" s="4" t="s">
         <v>32</v>
       </c>
@@ -1988,25 +1982,23 @@
         <v>2534</v>
       </c>
       <c r="K16" s="5">
-        <f t="shared" ref="K16:K17" si="2">SUM(C16+D16+F16)</f>
-        <v>1</v>
+        <f>SUM(C16+D16+F16)</f>
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="6">
-        <v>3.9463299131807419E-2</v>
+        <v>0.03946329913180742</v>
       </c>
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
       <c r="P16" s="6">
-        <v>0.31570639305445941</v>
+        <v>0.3157063930544594</v>
       </c>
       <c r="Q16" s="6"/>
       <c r="R16" s="6">
-        <f t="shared" ref="R16:R17" si="3">K16/J16*100</f>
-        <v>3.9463299131807419E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+        <f>K16/J16*100</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="4" t="s">
         <v>33</v>
       </c>
@@ -2030,27 +2022,25 @@
         <v>14507</v>
       </c>
       <c r="K17" s="5">
-        <f t="shared" si="2"/>
-        <v>112</v>
+        <f>SUM(C17+D17+F17)</f>
       </c>
       <c r="L17" s="6">
-        <v>2.0679671882539469E-2</v>
+        <v>0.02067967188253947</v>
       </c>
       <c r="M17" s="6"/>
       <c r="N17" s="6">
-        <v>0.71000206796718823</v>
+        <v>0.7100020679671882</v>
       </c>
       <c r="O17" s="6">
-        <v>6.2039015647618392E-2</v>
+        <v>0.06203901564761839</v>
       </c>
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
       <c r="R17" s="6">
-        <f t="shared" si="3"/>
-        <v>0.77204108361480661</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+        <f>K17/J17*100</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="4" t="s">
         <v>34</v>
       </c>
@@ -2074,7 +2064,7 @@
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
     </row>
-    <row r="19" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
       <c r="A19" s="4" t="s">
         <v>35</v>
       </c>
@@ -2104,7 +2094,7 @@
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
     </row>
-    <row r="20" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
       <c r="A20" s="4" t="s">
         <v>36</v>
       </c>
@@ -2128,27 +2118,25 @@
         <v>1435</v>
       </c>
       <c r="K20" s="5">
-        <f t="shared" ref="K20:K22" si="4">SUM(C20+D20+F20)</f>
-        <v>9</v>
+        <f>SUM(C20+D20+F20)</f>
       </c>
       <c r="L20" s="6">
-        <v>6.968641114982578E-2</v>
+        <v>0.06968641114982578</v>
       </c>
       <c r="M20" s="6"/>
       <c r="N20" s="6">
-        <v>0.55749128919860624</v>
+        <v>0.5574912891986062</v>
       </c>
       <c r="O20" s="6">
-        <v>6.968641114982578E-2</v>
+        <v>0.06968641114982578</v>
       </c>
       <c r="P20" s="6"/>
       <c r="Q20" s="6"/>
       <c r="R20" s="6">
-        <f t="shared" ref="R20:R22" si="5">K20/J20*100</f>
-        <v>0.62717770034843201</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f>K20/J20*100</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
       <c r="A21" s="4" t="s">
         <v>37</v>
       </c>
@@ -2176,31 +2164,29 @@
         <v>3397</v>
       </c>
       <c r="K21" s="5">
-        <f t="shared" si="4"/>
-        <v>11</v>
+        <f>SUM(C21+D21+F21)</f>
       </c>
       <c r="L21" s="6">
-        <v>5.8875478363261707E-2</v>
+        <v>0.05887547836326171</v>
       </c>
       <c r="M21" s="6">
         <v>0.1177509567265234</v>
       </c>
       <c r="N21" s="6">
-        <v>5.8875478363261707E-2</v>
+        <v>0.05887547836326171</v>
       </c>
       <c r="O21" s="6">
-        <v>0.14718869590815431</v>
+        <v>0.1471886959081543</v>
       </c>
       <c r="P21" s="6">
         <v>0.2355019134530468</v>
       </c>
       <c r="Q21" s="6"/>
       <c r="R21" s="6">
-        <f t="shared" si="5"/>
-        <v>0.32381513099793935</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+        <f>K21/J21*100</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="4" t="s">
         <v>38</v>
       </c>
@@ -2226,8 +2212,7 @@
         <v>1973</v>
       </c>
       <c r="K22" s="5">
-        <f t="shared" si="4"/>
-        <v>177</v>
+        <f>SUM(C22+D22+F22)</f>
       </c>
       <c r="L22" s="6"/>
       <c r="M22" s="6">
@@ -2237,18 +2222,17 @@
         <v>1.773948302078054</v>
       </c>
       <c r="O22" s="6">
-        <v>5.4738976178408514</v>
+        <v>5.473897617840851</v>
       </c>
       <c r="P22" s="6">
-        <v>9.9341104916371012</v>
+        <v>9.934110491637101</v>
       </c>
       <c r="Q22" s="6"/>
       <c r="R22" s="6">
-        <f t="shared" si="5"/>
-        <v>8.9711099847947278</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f>K22/J22*100</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
       <c r="A23" s="4" t="s">
         <v>39</v>
       </c>
@@ -2271,14 +2255,14 @@
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
       <c r="N23" s="6">
-        <v>0.14869888475836429</v>
+        <v>0.1486988847583643</v>
       </c>
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
       <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
     </row>
-    <row r="24" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="4" t="s">
         <v>40</v>
       </c>
@@ -2301,14 +2285,14 @@
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
       <c r="N24" s="6">
-        <v>0.30934767989240081</v>
+        <v>0.3093476798924008</v>
       </c>
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
       <c r="Q24" s="6"/>
       <c r="R24" s="6"/>
     </row>
-    <row r="25" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
       <c r="A25" s="4" t="s">
         <v>41</v>
       </c>
@@ -2338,7 +2322,7 @@
       <c r="Q25" s="6"/>
       <c r="R25" s="6"/>
     </row>
-    <row r="26" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="4" t="s">
         <v>42</v>
       </c>
@@ -2364,7 +2348,7 @@
       <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
     </row>
-    <row r="27" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="4" t="s">
         <v>43</v>
       </c>
@@ -2394,7 +2378,7 @@
       <c r="Q27" s="6"/>
       <c r="R27" s="6"/>
     </row>
-    <row r="28" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="4" t="s">
         <v>44</v>
       </c>
@@ -2420,7 +2404,7 @@
       <c r="Q28" s="6"/>
       <c r="R28" s="6"/>
     </row>
-    <row r="29" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
       <c r="A29" s="4" t="s">
         <v>45</v>
       </c>
@@ -2448,7 +2432,7 @@
       <c r="Q29" s="6"/>
       <c r="R29" s="6"/>
     </row>
-    <row r="30" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
       <c r="A30" s="4" t="s">
         <v>46</v>
       </c>
@@ -2471,14 +2455,14 @@
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
       <c r="N30" s="6">
-        <v>0.18570102135561739</v>
+        <v>0.1857010213556174</v>
       </c>
       <c r="O30" s="6"/>
       <c r="P30" s="6"/>
       <c r="Q30" s="6"/>
       <c r="R30" s="6"/>
     </row>
-    <row r="31" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
       <c r="A31" s="4" t="s">
         <v>47</v>
       </c>
@@ -2504,31 +2488,29 @@
         <v>1857</v>
       </c>
       <c r="K31" s="5">
-        <f t="shared" ref="K31:K32" si="6">SUM(C31+D31+F31)</f>
-        <v>10</v>
+        <f>SUM(C31+D31+F31)</f>
       </c>
       <c r="L31" s="6">
-        <v>0.26925148088314482</v>
+        <v>0.2692514808831448</v>
       </c>
       <c r="M31" s="6">
-        <v>0.10770059235325791</v>
+        <v>0.1077005923532579</v>
       </c>
       <c r="N31" s="6">
-        <v>5.3850296176628967E-2</v>
+        <v>0.05385029617662897</v>
       </c>
       <c r="O31" s="6">
-        <v>0.37695207323640278</v>
+        <v>0.3769520732364028</v>
       </c>
       <c r="P31" s="6">
-        <v>0.32310177705977378</v>
+        <v>0.3231017770597738</v>
       </c>
       <c r="Q31" s="6"/>
       <c r="R31" s="6">
-        <f t="shared" ref="R31:R32" si="7">K31/J31*100</f>
-        <v>0.53850296176628965</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f>K31/J31*100</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
       <c r="A32" s="4" t="s">
         <v>48</v>
       </c>
@@ -2556,31 +2538,29 @@
         <v>948</v>
       </c>
       <c r="K32" s="5">
-        <f t="shared" si="6"/>
-        <v>103</v>
+        <f>SUM(C32+D32+F32)</f>
       </c>
       <c r="L32" s="6">
-        <v>0.31645569620253172</v>
+        <v>0.3164556962025317</v>
       </c>
       <c r="M32" s="6">
         <v>2.109704641350211</v>
       </c>
       <c r="N32" s="6">
-        <v>3.5864978902953579</v>
+        <v>3.586497890295358</v>
       </c>
       <c r="O32" s="6">
-        <v>5.1687763713080166</v>
+        <v>5.168776371308017</v>
       </c>
       <c r="P32" s="6">
-        <v>9.3881856540084385</v>
+        <v>9.388185654008439</v>
       </c>
       <c r="Q32" s="6"/>
       <c r="R32" s="6">
-        <f t="shared" si="7"/>
-        <v>10.864978902953586</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f>K32/J32*100</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
       <c r="A33" s="4" t="s">
         <v>49</v>
       </c>
@@ -2606,7 +2586,7 @@
       <c r="Q33" s="6"/>
       <c r="R33" s="6"/>
     </row>
-    <row r="34" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
       <c r="A34" s="4" t="s">
         <v>50</v>
       </c>
@@ -2627,14 +2607,14 @@
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
       <c r="N34" s="6">
-        <v>9.8619329388560162E-2</v>
+        <v>0.09861932938856016</v>
       </c>
       <c r="O34" s="6"/>
       <c r="P34" s="6"/>
       <c r="Q34" s="6"/>
       <c r="R34" s="6"/>
     </row>
-    <row r="35" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
       <c r="A35" s="4" t="s">
         <v>51</v>
       </c>
@@ -2660,7 +2640,7 @@
       <c r="Q35" s="6"/>
       <c r="R35" s="6"/>
     </row>
-    <row r="36" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
       <c r="A36" s="4" t="s">
         <v>52</v>
       </c>
@@ -2686,29 +2666,27 @@
         <v>11400</v>
       </c>
       <c r="K36" s="5">
-        <f t="shared" ref="K36:K37" si="8">SUM(C36+D36+F36)</f>
-        <v>28</v>
+        <f>SUM(C36+D36+F36)</f>
       </c>
       <c r="L36" s="6"/>
       <c r="M36" s="6">
-        <v>8.771929824561403E-3</v>
+        <v>0.008771929824561403</v>
       </c>
       <c r="N36" s="6">
-        <v>0.22807017543859651</v>
+        <v>0.2280701754385965</v>
       </c>
       <c r="O36" s="6">
-        <v>8.771929824561403E-3</v>
+        <v>0.008771929824561403</v>
       </c>
       <c r="P36" s="6">
-        <v>1.754385964912281E-2</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="Q36" s="6"/>
       <c r="R36" s="6">
-        <f t="shared" ref="R36:R37" si="9">K36/J36*100</f>
-        <v>0.24561403508771931</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f>K36/J36*100</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
       <c r="A37" s="4" t="s">
         <v>53</v>
       </c>
@@ -2736,31 +2714,29 @@
         <v>5357</v>
       </c>
       <c r="K37" s="5">
-        <f t="shared" si="8"/>
-        <v>301</v>
+        <f>SUM(C37+D37+F37)</f>
       </c>
       <c r="L37" s="6">
-        <v>3.7334328915437753E-2</v>
+        <v>0.03733432891543775</v>
       </c>
       <c r="M37" s="6">
-        <v>1.866716445771887E-2</v>
+        <v>0.01866716445771887</v>
       </c>
       <c r="N37" s="6">
-        <v>5.5441478439425058</v>
+        <v>5.544147843942506</v>
       </c>
       <c r="O37" s="6">
-        <v>5.6001493373156623E-2</v>
+        <v>0.05600149337315662</v>
       </c>
       <c r="P37" s="6">
-        <v>1.866716445771887E-2</v>
+        <v>0.01866716445771887</v>
       </c>
       <c r="Q37" s="6"/>
       <c r="R37" s="6">
-        <f t="shared" si="9"/>
-        <v>5.6188165017733809</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f>K37/J37*100</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
       <c r="A38" s="4" t="s">
         <v>54</v>
       </c>
@@ -2783,14 +2759,14 @@
       <c r="L38" s="6"/>
       <c r="M38" s="6"/>
       <c r="N38" s="6">
-        <v>5.7471264367816091E-2</v>
+        <v>0.05747126436781609</v>
       </c>
       <c r="O38" s="6"/>
       <c r="P38" s="6"/>
       <c r="Q38" s="6"/>
       <c r="R38" s="6"/>
     </row>
-    <row r="39" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
       <c r="A39" s="4" t="s">
         <v>55</v>
       </c>
@@ -2816,7 +2792,7 @@
       <c r="Q39" s="6"/>
       <c r="R39" s="6"/>
     </row>
-    <row r="40" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
       <c r="A40" s="4" t="s">
         <v>56</v>
       </c>
@@ -2840,7 +2816,7 @@
       <c r="Q40" s="6"/>
       <c r="R40" s="6"/>
     </row>
-    <row r="41" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
       <c r="A41" s="4" t="s">
         <v>57</v>
       </c>
@@ -2866,7 +2842,7 @@
       <c r="Q41" s="6"/>
       <c r="R41" s="6"/>
     </row>
-    <row r="42" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
       <c r="A42" s="4" t="s">
         <v>58</v>
       </c>
@@ -2891,26 +2867,24 @@
       </c>
       <c r="K42" s="5">
         <f>SUM(C42+D42+F42)</f>
-        <v>216</v>
       </c>
       <c r="L42" s="6">
-        <v>0.95429432446007023</v>
+        <v>0.9542943244600702</v>
       </c>
       <c r="M42" s="6">
-        <v>2.0391762933199402</v>
+        <v>2.03917629331994</v>
       </c>
       <c r="N42" s="6">
-        <v>0.13058764439979911</v>
+        <v>0.1305876443997991</v>
       </c>
       <c r="O42" s="6"/>
       <c r="P42" s="6"/>
       <c r="Q42" s="6"/>
       <c r="R42" s="6">
         <f>K42/J42*100</f>
-        <v>2.1697639377197389</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
       <c r="A43" s="4" t="s">
         <v>59</v>
       </c>
@@ -2933,14 +2907,14 @@
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
       <c r="N43" s="6">
-        <v>3.274394237066143E-2</v>
+        <v>0.03274394237066143</v>
       </c>
       <c r="O43" s="6"/>
       <c r="P43" s="6"/>
       <c r="Q43" s="6"/>
       <c r="R43" s="6"/>
     </row>
-    <row r="44" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
       <c r="A44" s="4" t="s">
         <v>60</v>
       </c>
@@ -2963,24 +2937,22 @@
       </c>
       <c r="K44" s="5">
         <f>SUM(C44+D44+F44)</f>
-        <v>841</v>
       </c>
       <c r="L44" s="6"/>
       <c r="M44" s="6">
         <v>0.1816596424938236</v>
       </c>
       <c r="N44" s="6">
-        <v>0.83684541975488058</v>
+        <v>0.8368454197548806</v>
       </c>
       <c r="O44" s="6"/>
       <c r="P44" s="6"/>
       <c r="Q44" s="6"/>
       <c r="R44" s="6">
         <f>K44/J44*100</f>
-        <v>1.0185050622487042</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
       <c r="A45" s="4" t="s">
         <v>61</v>
       </c>
@@ -3004,7 +2976,7 @@
       <c r="Q45" s="6"/>
       <c r="R45" s="6"/>
     </row>
-    <row r="46" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
       <c r="A46" s="4" t="s">
         <v>62</v>
       </c>
@@ -3033,30 +3005,28 @@
       </c>
       <c r="K46" s="5">
         <f>SUM(C46+D46+F46)</f>
-        <v>807</v>
       </c>
       <c r="L46" s="6">
-        <v>3.0055614720151458</v>
+        <v>3.005561472015146</v>
       </c>
       <c r="M46" s="6">
         <v>2.212755886877293</v>
       </c>
       <c r="N46" s="6">
-        <v>4.733167672464797E-2</v>
+        <v>0.04733167672464797</v>
       </c>
       <c r="O46" s="6">
-        <v>7.2890782155957874</v>
+        <v>7.289078215595787</v>
       </c>
       <c r="P46" s="6">
-        <v>5.4076440657910307</v>
+        <v>5.407644065791031</v>
       </c>
       <c r="Q46" s="6"/>
       <c r="R46" s="6">
         <f>K46/J46*100</f>
-        <v>9.5491657791977289</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25">
       <c r="A47" s="4" t="s">
         <v>63</v>
       </c>
@@ -3084,7 +3054,7 @@
       <c r="Q47" s="6"/>
       <c r="R47" s="6"/>
     </row>
-    <row r="48" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25">
       <c r="A48" s="4" t="s">
         <v>64</v>
       </c>
@@ -3110,7 +3080,7 @@
       <c r="Q48" s="6"/>
       <c r="R48" s="6"/>
     </row>
-    <row r="49" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25">
       <c r="A49" s="4" t="s">
         <v>65</v>
       </c>
@@ -3137,7 +3107,6 @@
       </c>
       <c r="K49" s="5">
         <f>SUM(C49+D49+F49)</f>
-        <v>48</v>
       </c>
       <c r="L49" s="6"/>
       <c r="M49" s="6">
@@ -3150,15 +3119,14 @@
         <v>2.675585284280936</v>
       </c>
       <c r="P49" s="6">
-        <v>27.090301003344479</v>
+        <v>27.09030100334448</v>
       </c>
       <c r="Q49" s="6"/>
       <c r="R49" s="6">
         <f>K49/J49*100</f>
-        <v>16.053511705685619</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25">
       <c r="A50" s="4" t="s">
         <v>66</v>
       </c>
@@ -3184,7 +3152,7 @@
       <c r="Q50" s="6"/>
       <c r="R50" s="6"/>
     </row>
-    <row r="51" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25">
       <c r="A51" s="4" t="s">
         <v>67</v>
       </c>
@@ -3208,27 +3176,25 @@
         <v>1787</v>
       </c>
       <c r="K51" s="5">
-        <f t="shared" ref="K51:K52" si="10">SUM(C51+D51+F51)</f>
-        <v>6</v>
+        <f>SUM(C51+D51+F51)</f>
       </c>
       <c r="L51" s="6"/>
       <c r="M51" s="6">
-        <v>5.5959709009513157E-2</v>
+        <v>0.05595970900951316</v>
       </c>
       <c r="N51" s="6"/>
       <c r="O51" s="6">
-        <v>0.27979854504756568</v>
+        <v>0.2797985450475657</v>
       </c>
       <c r="P51" s="6">
         <v>0.2238388360380526</v>
       </c>
       <c r="Q51" s="6"/>
       <c r="R51" s="6">
-        <f t="shared" ref="R51:R52" si="11">K51/J51*100</f>
-        <v>0.33575825405707893</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f>K51/J51*100</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25">
       <c r="A52" s="4" t="s">
         <v>68</v>
       </c>
@@ -3256,31 +3222,29 @@
         <v>588</v>
       </c>
       <c r="K52" s="5">
-        <f t="shared" si="10"/>
-        <v>239</v>
+        <f>SUM(C52+D52+F52)</f>
       </c>
       <c r="L52" s="6">
         <v>13.26530612244898</v>
       </c>
       <c r="M52" s="6">
-        <v>14.625850340136051</v>
+        <v>14.62585034013605</v>
       </c>
       <c r="N52" s="6">
-        <v>3.7414965986394559</v>
+        <v>3.741496598639456</v>
       </c>
       <c r="O52" s="6">
-        <v>22.278911564625851</v>
+        <v>22.27891156462585</v>
       </c>
       <c r="P52" s="6">
-        <v>20.068027210884349</v>
+        <v>20.06802721088435</v>
       </c>
       <c r="Q52" s="6"/>
       <c r="R52" s="6">
-        <f t="shared" si="11"/>
-        <v>40.646258503401363</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f>K52/J52*100</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25">
       <c r="A53" s="4" t="s">
         <v>69</v>
       </c>
@@ -3303,14 +3267,14 @@
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
       <c r="N53" s="6">
-        <v>1.093254619000765E-2</v>
+        <v>0.01093254619000765</v>
       </c>
       <c r="O53" s="6"/>
       <c r="P53" s="6"/>
       <c r="Q53" s="6"/>
       <c r="R53" s="6"/>
     </row>
-    <row r="54" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25">
       <c r="A54" s="4" t="s">
         <v>70</v>
       </c>
@@ -3331,14 +3295,14 @@
       <c r="L54" s="6"/>
       <c r="M54" s="6"/>
       <c r="N54" s="6">
-        <v>2.5214321734745339E-2</v>
+        <v>0.02521432173474534</v>
       </c>
       <c r="O54" s="6"/>
       <c r="P54" s="6"/>
       <c r="Q54" s="6"/>
       <c r="R54" s="6"/>
     </row>
-    <row r="55" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25">
       <c r="A55" s="4" t="s">
         <v>71</v>
       </c>
@@ -3368,7 +3332,7 @@
       <c r="Q55" s="6"/>
       <c r="R55" s="6"/>
     </row>
-    <row r="56" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25">
       <c r="A56" s="4" t="s">
         <v>72</v>
       </c>
@@ -3392,7 +3356,7 @@
       <c r="Q56" s="6"/>
       <c r="R56" s="6"/>
     </row>
-    <row r="57" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25">
       <c r="A57" s="4" t="s">
         <v>73</v>
       </c>
@@ -3413,24 +3377,22 @@
       </c>
       <c r="K57" s="5">
         <f>SUM(C57+D57+F57)</f>
-        <v>4</v>
       </c>
       <c r="L57" s="6"/>
       <c r="M57" s="6">
-        <v>0.77220077220077221</v>
+        <v>0.7722007722007722</v>
       </c>
       <c r="N57" s="6"/>
       <c r="O57" s="6"/>
       <c r="P57" s="6">
-        <v>4.4401544401544406</v>
+        <v>4.440154440154441</v>
       </c>
       <c r="Q57" s="6"/>
       <c r="R57" s="6">
         <f>K57/J57*100</f>
-        <v>0.77220077220077221</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25">
       <c r="A58" s="4" t="s">
         <v>74</v>
       </c>
@@ -3454,7 +3416,7 @@
       <c r="Q58" s="6"/>
       <c r="R58" s="6"/>
     </row>
-    <row r="59" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25">
       <c r="A59" s="4" t="s">
         <v>75</v>
       </c>
@@ -3478,7 +3440,7 @@
       <c r="Q59" s="6"/>
       <c r="R59" s="6"/>
     </row>
-    <row r="60" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
       <c r="A60" s="4" t="s">
         <v>76</v>
       </c>
@@ -3499,24 +3461,22 @@
       </c>
       <c r="K60" s="5">
         <f>SUM(C60+D60+F60)</f>
-        <v>1</v>
       </c>
       <c r="L60" s="6"/>
       <c r="M60" s="6">
-        <v>0.16260162601626019</v>
+        <v>0.1626016260162602</v>
       </c>
       <c r="N60" s="6"/>
       <c r="O60" s="6"/>
       <c r="P60" s="6">
-        <v>0.32520325203252032</v>
+        <v>0.3252032520325203</v>
       </c>
       <c r="Q60" s="6"/>
       <c r="R60" s="6">
         <f>K60/J60*100</f>
-        <v>0.16260162601626016</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25">
       <c r="A61" s="4" t="s">
         <v>77</v>
       </c>
@@ -3540,7 +3500,7 @@
       <c r="Q61" s="6"/>
       <c r="R61" s="6"/>
     </row>
-    <row r="62" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25">
       <c r="A62" s="4" t="s">
         <v>78</v>
       </c>
@@ -3564,7 +3524,7 @@
       <c r="Q62" s="6"/>
       <c r="R62" s="6"/>
     </row>
-    <row r="63" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25">
       <c r="A63" s="4" t="s">
         <v>79</v>
       </c>
@@ -3588,7 +3548,7 @@
       <c r="Q63" s="6"/>
       <c r="R63" s="6"/>
     </row>
-    <row r="64" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25">
       <c r="A64" s="4" t="s">
         <v>80</v>
       </c>
@@ -3608,25 +3568,23 @@
         <v>349</v>
       </c>
       <c r="K64" s="5">
-        <f t="shared" ref="K64:K65" si="12">SUM(C64+D64+F64)</f>
-        <v>1</v>
+        <f>SUM(C64+D64+F64)</f>
       </c>
       <c r="L64" s="6"/>
       <c r="M64" s="6">
-        <v>0.28653295128939832</v>
+        <v>0.2865329512893983</v>
       </c>
       <c r="N64" s="6"/>
       <c r="O64" s="6"/>
       <c r="P64" s="6">
-        <v>0.57306590257879653</v>
+        <v>0.5730659025787965</v>
       </c>
       <c r="Q64" s="6"/>
       <c r="R64" s="6">
-        <f t="shared" ref="R64:R65" si="13">K64/J64*100</f>
-        <v>0.28653295128939826</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f>K64/J64*100</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="17.25">
       <c r="A65" s="4" t="s">
         <v>81</v>
       </c>
@@ -3648,25 +3606,23 @@
         <v>5277</v>
       </c>
       <c r="K65" s="5">
-        <f t="shared" si="12"/>
-        <v>1</v>
+        <f>SUM(C65+D65+F65)</f>
       </c>
       <c r="L65" s="6"/>
       <c r="M65" s="6">
-        <v>1.8950161076369151E-2</v>
+        <v>0.01895016107636915</v>
       </c>
       <c r="N65" s="6"/>
       <c r="O65" s="6"/>
       <c r="P65" s="6">
-        <v>1.8950161076369151E-2</v>
+        <v>0.01895016107636915</v>
       </c>
       <c r="Q65" s="6"/>
       <c r="R65" s="6">
-        <f t="shared" si="13"/>
-        <v>1.8950161076369147E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f>K65/J65*100</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25">
       <c r="A66" s="4" t="s">
         <v>82</v>
       </c>
@@ -3690,7 +3646,7 @@
       <c r="Q66" s="6"/>
       <c r="R66" s="6"/>
     </row>
-    <row r="67" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25">
       <c r="A67" s="4" t="s">
         <v>83</v>
       </c>
@@ -3714,7 +3670,7 @@
       <c r="Q67" s="6"/>
       <c r="R67" s="6"/>
     </row>
-    <row r="68" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="17.25">
       <c r="A68" s="4" t="s">
         <v>84</v>
       </c>
@@ -3736,25 +3692,23 @@
         <v>2585</v>
       </c>
       <c r="K68" s="5">
-        <f t="shared" ref="K68:K69" si="14">SUM(C68+D68+F68)</f>
-        <v>1</v>
+        <f>SUM(C68+D68+F68)</f>
       </c>
       <c r="L68" s="6"/>
       <c r="M68" s="6">
-        <v>3.8684719535783361E-2</v>
+        <v>0.03868471953578336</v>
       </c>
       <c r="N68" s="6"/>
       <c r="O68" s="6"/>
       <c r="P68" s="6">
-        <v>0.46421663442940042</v>
+        <v>0.4642166344294004</v>
       </c>
       <c r="Q68" s="6"/>
       <c r="R68" s="6">
-        <f t="shared" ref="R68:R69" si="15">K68/J68*100</f>
-        <v>3.8684719535783361E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f>K68/J68*100</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25">
       <c r="A69" s="4" t="s">
         <v>85</v>
       </c>
@@ -3776,27 +3730,25 @@
         <v>4399</v>
       </c>
       <c r="K69" s="5">
-        <f t="shared" si="14"/>
-        <v>2</v>
+        <f>SUM(C69+D69+F69)</f>
       </c>
       <c r="L69" s="6">
-        <v>2.2732439190725161E-2</v>
+        <v>0.02273243919072516</v>
       </c>
       <c r="M69" s="6"/>
       <c r="N69" s="6">
-        <v>2.2732439190725161E-2</v>
+        <v>0.02273243919072516</v>
       </c>
       <c r="O69" s="6">
-        <v>2.2732439190725161E-2</v>
+        <v>0.02273243919072516</v>
       </c>
       <c r="P69" s="6"/>
       <c r="Q69" s="6"/>
       <c r="R69" s="6">
-        <f t="shared" si="15"/>
-        <v>4.546487838145033E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f>K69/J69*100</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="17.25">
       <c r="A70" s="4" t="s">
         <v>86</v>
       </c>
@@ -3820,7 +3772,7 @@
       <c r="Q70" s="6"/>
       <c r="R70" s="6"/>
     </row>
-    <row r="71" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="17.25">
       <c r="A71" s="4" t="s">
         <v>87</v>
       </c>
@@ -3846,7 +3798,7 @@
       <c r="Q71" s="6"/>
       <c r="R71" s="6"/>
     </row>
-    <row r="72" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="17.25">
       <c r="A72" s="4" t="s">
         <v>88</v>
       </c>
@@ -3876,7 +3828,7 @@
       <c r="Q72" s="6"/>
       <c r="R72" s="6"/>
     </row>
-    <row r="73" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="17.25">
       <c r="A73" s="4" t="s">
         <v>89</v>
       </c>
@@ -3902,31 +3854,29 @@
         <v>379</v>
       </c>
       <c r="K73" s="5">
-        <f t="shared" ref="K73:K75" si="16">SUM(C73+D73+F73)</f>
-        <v>5</v>
+        <f>SUM(C73+D73+F73)</f>
       </c>
       <c r="L73" s="6">
-        <v>0.79155672823219003</v>
+        <v>0.79155672823219</v>
       </c>
       <c r="M73" s="6">
-        <v>0.26385224274406333</v>
+        <v>0.2638522427440633</v>
       </c>
       <c r="N73" s="6">
-        <v>0.26385224274406333</v>
+        <v>0.2638522427440633</v>
       </c>
       <c r="O73" s="6">
-        <v>0.79155672823219003</v>
+        <v>0.79155672823219</v>
       </c>
       <c r="P73" s="6">
-        <v>0.79155672823219003</v>
+        <v>0.79155672823219</v>
       </c>
       <c r="Q73" s="6"/>
       <c r="R73" s="6">
-        <f t="shared" ref="R73:R75" si="17">K73/J73*100</f>
-        <v>1.3192612137203166</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f>K73/J73*100</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="17.25">
       <c r="A74" s="4" t="s">
         <v>90</v>
       </c>
@@ -3956,31 +3906,29 @@
         <v>1960</v>
       </c>
       <c r="K74" s="5">
-        <f t="shared" si="16"/>
-        <v>31</v>
+        <f>SUM(C74+D74+F74)</f>
       </c>
       <c r="L74" s="6"/>
       <c r="M74" s="6">
-        <v>5.1020408163265307E-2</v>
+        <v>0.05102040816326531</v>
       </c>
       <c r="N74" s="6">
-        <v>1.4795918367346941</v>
+        <v>1.479591836734694</v>
       </c>
       <c r="O74" s="6">
-        <v>5.1020408163265307E-2</v>
+        <v>0.05102040816326531</v>
       </c>
       <c r="P74" s="6">
-        <v>5.1020408163265307E-2</v>
+        <v>0.05102040816326531</v>
       </c>
       <c r="Q74" s="6">
-        <v>5.1020408163265307E-2</v>
+        <v>0.05102040816326531</v>
       </c>
       <c r="R74" s="6">
-        <f t="shared" si="17"/>
-        <v>1.5816326530612244</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f>K74/J74*100</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="17.25">
       <c r="A75" s="4" t="s">
         <v>91</v>
       </c>
@@ -4004,27 +3952,25 @@
         <v>895</v>
       </c>
       <c r="K75" s="5">
-        <f t="shared" si="16"/>
-        <v>4</v>
+        <f>SUM(C75+D75+F75)</f>
       </c>
       <c r="L75" s="6"/>
       <c r="M75" s="6">
-        <v>0.33519553072625702</v>
+        <v>0.335195530726257</v>
       </c>
       <c r="N75" s="6"/>
       <c r="O75" s="6">
         <v>0.111731843575419</v>
       </c>
       <c r="P75" s="6">
-        <v>0.67039106145251393</v>
+        <v>0.6703910614525139</v>
       </c>
       <c r="Q75" s="6"/>
       <c r="R75" s="6">
-        <f t="shared" si="17"/>
-        <v>0.44692737430167595</v>
-      </c>
-    </row>
-    <row r="76" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f>K75/J75*100</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="17.25">
       <c r="A76" s="4" t="s">
         <v>92</v>
       </c>
@@ -4048,7 +3994,7 @@
       <c r="Q76" s="6"/>
       <c r="R76" s="6"/>
     </row>
-    <row r="77" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="17.25">
       <c r="A77" s="4" t="s">
         <v>93</v>
       </c>
@@ -4074,7 +4020,7 @@
       <c r="Q77" s="6"/>
       <c r="R77" s="6"/>
     </row>
-    <row r="78" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="17.25">
       <c r="A78" s="4" t="s">
         <v>94</v>
       </c>
@@ -4098,29 +4044,27 @@
         <v>626</v>
       </c>
       <c r="K78" s="5">
-        <f t="shared" ref="K78:K79" si="18">SUM(C78+D78+F78)</f>
-        <v>10</v>
+        <f>SUM(C78+D78+F78)</f>
       </c>
       <c r="L78" s="6"/>
       <c r="M78" s="6">
-        <v>0.15974440894568689</v>
+        <v>0.1597444089456869</v>
       </c>
       <c r="N78" s="6">
-        <v>0.15974440894568689</v>
+        <v>0.1597444089456869</v>
       </c>
       <c r="O78" s="6">
-        <v>1.2779552715654949</v>
+        <v>1.277955271565495</v>
       </c>
       <c r="P78" s="6">
-        <v>2.2364217252396159</v>
+        <v>2.236421725239616</v>
       </c>
       <c r="Q78" s="6"/>
       <c r="R78" s="6">
-        <f t="shared" ref="R78:R79" si="19">K78/J78*100</f>
-        <v>1.5974440894568689</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f>K78/J78*100</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="17.25">
       <c r="A79" s="4" t="s">
         <v>95</v>
       </c>
@@ -4142,8 +4086,7 @@
         <v>497</v>
       </c>
       <c r="K79" s="5">
-        <f t="shared" si="18"/>
-        <v>4</v>
+        <f>SUM(C79+D79+F79)</f>
       </c>
       <c r="L79" s="6"/>
       <c r="M79" s="6">
@@ -4151,18 +4094,17 @@
       </c>
       <c r="N79" s="6"/>
       <c r="O79" s="6">
-        <v>0.60362173038229372</v>
+        <v>0.6036217303822937</v>
       </c>
       <c r="P79" s="6">
-        <v>0.60362173038229372</v>
+        <v>0.6036217303822937</v>
       </c>
       <c r="Q79" s="6"/>
       <c r="R79" s="6">
-        <f t="shared" si="19"/>
-        <v>0.8048289738430584</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f>K79/J79*100</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="17.25">
       <c r="A80" s="4" t="s">
         <v>96</v>
       </c>
@@ -4186,7 +4128,7 @@
       <c r="Q80" s="6"/>
       <c r="R80" s="6"/>
     </row>
-    <row r="81" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="17.25">
       <c r="A81" s="4" t="s">
         <v>97</v>
       </c>
@@ -4210,7 +4152,7 @@
       <c r="Q81" s="6"/>
       <c r="R81" s="6"/>
     </row>
-    <row r="82" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="17.25">
       <c r="A82" s="4" t="s">
         <v>98</v>
       </c>
@@ -4234,7 +4176,7 @@
       <c r="Q82" s="6"/>
       <c r="R82" s="6"/>
     </row>
-    <row r="83" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="17.25">
       <c r="A83" s="4" t="s">
         <v>99</v>
       </c>
@@ -4260,29 +4202,27 @@
         <v>1485</v>
       </c>
       <c r="K83" s="5">
-        <f t="shared" ref="K83:K86" si="20">SUM(C83+D83+F83)</f>
-        <v>146</v>
+        <f>SUM(C83+D83+F83)</f>
       </c>
       <c r="L83" s="6"/>
       <c r="M83" s="6">
-        <v>4.6464646464646462</v>
+        <v>4.646464646464646</v>
       </c>
       <c r="N83" s="6">
-        <v>1.3468013468013471</v>
+        <v>1.346801346801347</v>
       </c>
       <c r="O83" s="6">
-        <v>3.8383838383838378</v>
+        <v>3.838383838383838</v>
       </c>
       <c r="P83" s="6">
-        <v>10.235690235690241</v>
+        <v>10.23569023569024</v>
       </c>
       <c r="Q83" s="6"/>
       <c r="R83" s="6">
-        <f t="shared" ref="R83:R86" si="21">K83/J83*100</f>
-        <v>9.8316498316498322</v>
-      </c>
-    </row>
-    <row r="84" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f>K83/J83*100</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="17.25">
       <c r="A84" s="4" t="s">
         <v>100</v>
       </c>
@@ -4310,31 +4250,29 @@
         <v>1053</v>
       </c>
       <c r="K84" s="5">
-        <f t="shared" si="20"/>
-        <v>38</v>
+        <f>SUM(C84+D84+F84)</f>
       </c>
       <c r="L84" s="6">
         <v>1.804368471035138</v>
       </c>
       <c r="M84" s="6">
-        <v>0.18993352326685661</v>
+        <v>0.1899335232668566</v>
       </c>
       <c r="N84" s="6">
-        <v>0.28490028490028491</v>
+        <v>0.2849002849002849</v>
       </c>
       <c r="O84" s="6">
         <v>3.133903133903134</v>
       </c>
       <c r="P84" s="6">
-        <v>0.56980056980056981</v>
+        <v>0.5698005698005698</v>
       </c>
       <c r="Q84" s="6"/>
       <c r="R84" s="6">
-        <f t="shared" si="21"/>
-        <v>3.6087369420702751</v>
-      </c>
-    </row>
-    <row r="85" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f>K84/J84*100</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="17.25">
       <c r="A85" s="4" t="s">
         <v>101</v>
       </c>
@@ -4358,27 +4296,25 @@
         <v>7025</v>
       </c>
       <c r="K85" s="5">
-        <f t="shared" si="20"/>
-        <v>3</v>
+        <f>SUM(C85+D85+F85)</f>
       </c>
       <c r="L85" s="6"/>
       <c r="M85" s="6">
-        <v>1.423487544483986E-2</v>
+        <v>0.01423487544483986</v>
       </c>
       <c r="N85" s="6">
-        <v>2.846975088967971E-2</v>
+        <v>0.02846975088967971</v>
       </c>
       <c r="O85" s="6"/>
       <c r="P85" s="6">
-        <v>2.846975088967971E-2</v>
+        <v>0.02846975088967971</v>
       </c>
       <c r="Q85" s="6"/>
       <c r="R85" s="6">
-        <f t="shared" si="21"/>
-        <v>4.2704626334519574E-2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f>K85/J85*100</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="17.25">
       <c r="A86" s="4" t="s">
         <v>102</v>
       </c>
@@ -4402,29 +4338,27 @@
         <v>1646</v>
       </c>
       <c r="K86" s="5">
-        <f t="shared" si="20"/>
-        <v>11</v>
+        <f>SUM(C86+D86+F86)</f>
       </c>
       <c r="L86" s="6">
-        <v>0.24301336573511539</v>
+        <v>0.2430133657351154</v>
       </c>
       <c r="M86" s="6">
-        <v>0.42527339003645198</v>
+        <v>0.425273390036452</v>
       </c>
       <c r="N86" s="6"/>
       <c r="O86" s="6">
-        <v>0.24301336573511539</v>
+        <v>0.2430133657351154</v>
       </c>
       <c r="P86" s="6">
-        <v>0.48602673147023079</v>
+        <v>0.4860267314702308</v>
       </c>
       <c r="Q86" s="6"/>
       <c r="R86" s="6">
-        <f t="shared" si="21"/>
-        <v>0.66828675577156749</v>
-      </c>
-    </row>
-    <row r="87" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f>K86/J86*100</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="17.25">
       <c r="A87" s="4" t="s">
         <v>103</v>
       </c>
@@ -4448,7 +4382,7 @@
       <c r="Q87" s="6"/>
       <c r="R87" s="6"/>
     </row>
-    <row r="88" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="17.25">
       <c r="A88" s="4" t="s">
         <v>104</v>
       </c>
@@ -4472,7 +4406,7 @@
       <c r="Q88" s="6"/>
       <c r="R88" s="6"/>
     </row>
-    <row r="89" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="17.25">
       <c r="A89" s="4" t="s">
         <v>105</v>
       </c>
@@ -4496,7 +4430,7 @@
       <c r="Q89" s="6"/>
       <c r="R89" s="6"/>
     </row>
-    <row r="90" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="17.25">
       <c r="A90" s="4" t="s">
         <v>106</v>
       </c>
@@ -4522,29 +4456,27 @@
         <v>1791</v>
       </c>
       <c r="K90" s="5">
-        <f t="shared" ref="K90:K94" si="22">SUM(C90+D90+F90)</f>
-        <v>100</v>
+        <f>SUM(C90+D90+F90)</f>
       </c>
       <c r="L90" s="6"/>
       <c r="M90" s="6">
         <v>1.563372417643774</v>
       </c>
       <c r="N90" s="6">
-        <v>1.4517029592406481</v>
+        <v>1.451702959240648</v>
       </c>
       <c r="O90" s="6">
-        <v>2.5683975432719151</v>
+        <v>2.568397543271915</v>
       </c>
       <c r="P90" s="6">
-        <v>2.6800670016750421</v>
+        <v>2.680067001675042</v>
       </c>
       <c r="Q90" s="6"/>
       <c r="R90" s="6">
-        <f t="shared" ref="R90:R91" si="23">K90/J90*100</f>
-        <v>5.5834729201563373</v>
-      </c>
-    </row>
-    <row r="91" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f>K90/J90*100</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="17.25">
       <c r="A91" s="4" t="s">
         <v>107</v>
       </c>
@@ -4568,14 +4500,13 @@
         <v>3834</v>
       </c>
       <c r="K91" s="5">
-        <f t="shared" si="22"/>
-        <v>22</v>
+        <f>SUM(C91+D91+F91)</f>
       </c>
       <c r="L91" s="6">
-        <v>20.709441836202402</v>
+        <v>20.7094418362024</v>
       </c>
       <c r="M91" s="6">
-        <v>0.46948356807511737</v>
+        <v>0.4694835680751174</v>
       </c>
       <c r="N91" s="6">
         <v>0.1043296817944705</v>
@@ -4584,11 +4515,10 @@
       <c r="P91" s="6"/>
       <c r="Q91" s="6"/>
       <c r="R91" s="6">
-        <f t="shared" si="23"/>
-        <v>0.57381324986958793</v>
-      </c>
-    </row>
-    <row r="92" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f>K91/J91*100</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="17.25">
       <c r="A92" s="4" t="s">
         <v>108</v>
       </c>
@@ -4604,8 +4534,7 @@
         <v>181</v>
       </c>
       <c r="K92" s="5">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f>SUM(C92+D92+F92)</f>
       </c>
       <c r="L92" s="6"/>
       <c r="M92" s="6"/>
@@ -4615,7 +4544,7 @@
       <c r="Q92" s="6"/>
       <c r="R92" s="6"/>
     </row>
-    <row r="93" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="17.25">
       <c r="A93" s="4" t="s">
         <v>109</v>
       </c>
@@ -4635,25 +4564,23 @@
         <v>5107</v>
       </c>
       <c r="K93" s="5">
-        <f t="shared" si="22"/>
-        <v>1</v>
+        <f>SUM(C93+D93+F93)</f>
       </c>
       <c r="L93" s="6">
-        <v>9.7904836498923037E-2</v>
+        <v>0.09790483649892304</v>
       </c>
       <c r="M93" s="6">
-        <v>1.9580967299784612E-2</v>
+        <v>0.01958096729978461</v>
       </c>
       <c r="N93" s="6"/>
       <c r="O93" s="6"/>
       <c r="P93" s="6"/>
       <c r="Q93" s="6"/>
       <c r="R93" s="6">
-        <f t="shared" ref="R93:R94" si="24">K93/J93*100</f>
-        <v>1.9580967299784608E-2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f>K93/J93*100</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="17.25">
       <c r="A94" s="4" t="s">
         <v>110</v>
       </c>
@@ -4681,31 +4608,29 @@
         <v>9909</v>
       </c>
       <c r="K94" s="5">
-        <f t="shared" si="22"/>
-        <v>111</v>
+        <f>SUM(C94+D94+F94)</f>
       </c>
       <c r="L94" s="6">
-        <v>1.0091835704914721E-2</v>
+        <v>0.01009183570491472</v>
       </c>
       <c r="M94" s="6">
-        <v>9.0826521344232511E-2</v>
+        <v>0.09082652134423251</v>
       </c>
       <c r="N94" s="6">
-        <v>0.99909173478655766</v>
+        <v>0.9990917347865577</v>
       </c>
       <c r="O94" s="6">
-        <v>3.0275507114744169E-2</v>
+        <v>0.03027550711474417</v>
       </c>
       <c r="P94" s="6">
-        <v>0.18165304268846499</v>
+        <v>0.181653042688465</v>
       </c>
       <c r="Q94" s="6"/>
       <c r="R94" s="6">
-        <f t="shared" si="24"/>
-        <v>1.1201937632455343</v>
-      </c>
-    </row>
-    <row r="95" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f>K94/J94*100</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="17.25">
       <c r="A95" s="4" t="s">
         <v>111</v>
       </c>
@@ -4729,7 +4654,7 @@
       <c r="Q95" s="6"/>
       <c r="R95" s="6"/>
     </row>
-    <row r="96" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="17.25">
       <c r="A96" s="4" t="s">
         <v>112</v>
       </c>
@@ -4754,26 +4679,24 @@
       </c>
       <c r="K96" s="5">
         <f>SUM(C96+D96+F96)</f>
-        <v>36</v>
       </c>
       <c r="L96" s="6">
-        <v>5.6721497447532618E-2</v>
+        <v>0.05672149744753262</v>
       </c>
       <c r="M96" s="6"/>
       <c r="N96" s="6">
         <v>1.985252410663642</v>
       </c>
       <c r="O96" s="6">
-        <v>5.6721497447532618E-2</v>
+        <v>0.05672149744753262</v>
       </c>
       <c r="P96" s="6"/>
       <c r="Q96" s="6"/>
       <c r="R96" s="6">
         <f>K96/J96*100</f>
-        <v>2.0419739081111743</v>
-      </c>
-    </row>
-    <row r="97" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="17.25">
       <c r="A97" s="4" t="s">
         <v>113</v>
       </c>
@@ -4797,7 +4720,7 @@
       <c r="Q97" s="6"/>
       <c r="R97" s="6"/>
     </row>
-    <row r="98" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="17.25">
       <c r="A98" s="4" t="s">
         <v>114</v>
       </c>
@@ -4821,7 +4744,7 @@
       <c r="Q98" s="6"/>
       <c r="R98" s="6"/>
     </row>
-    <row r="99" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="17.25">
       <c r="A99" s="4" t="s">
         <v>115</v>
       </c>
@@ -4842,24 +4765,22 @@
       </c>
       <c r="K99" s="5">
         <f>SUM(C99+D99+F99)</f>
-        <v>3</v>
       </c>
       <c r="L99" s="6"/>
       <c r="M99" s="6">
-        <v>0.27598896044158228</v>
+        <v>0.2759889604415823</v>
       </c>
       <c r="N99" s="6"/>
       <c r="O99" s="6"/>
       <c r="P99" s="6">
-        <v>0.36798528058877639</v>
+        <v>0.3679852805887764</v>
       </c>
       <c r="Q99" s="6"/>
       <c r="R99" s="6">
         <f>K99/J99*100</f>
-        <v>0.27598896044158233</v>
-      </c>
-    </row>
-    <row r="100" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="17.25">
       <c r="A100" s="4" t="s">
         <v>116</v>
       </c>
@@ -4887,7 +4808,7 @@
       <c r="Q100" s="6"/>
       <c r="R100" s="6"/>
     </row>
-    <row r="101" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="17.25">
       <c r="A101" s="4" t="s">
         <v>117</v>
       </c>
@@ -4911,7 +4832,7 @@
       <c r="Q101" s="6"/>
       <c r="R101" s="6"/>
     </row>
-    <row r="102" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="17.25">
       <c r="A102" s="4" t="s">
         <v>118</v>
       </c>
@@ -4935,7 +4856,7 @@
       <c r="Q102" s="6"/>
       <c r="R102" s="6"/>
     </row>
-    <row r="103" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="17.25">
       <c r="A103" s="4" t="s">
         <v>119</v>
       </c>
@@ -4956,14 +4877,14 @@
       <c r="L103" s="6"/>
       <c r="M103" s="6"/>
       <c r="N103" s="6">
-        <v>6.390184676337147E-3</v>
+        <v>0.006390184676337147</v>
       </c>
       <c r="O103" s="6"/>
       <c r="P103" s="6"/>
       <c r="Q103" s="6"/>
       <c r="R103" s="6"/>
     </row>
-    <row r="104" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="17.25">
       <c r="A104" s="4" t="s">
         <v>120</v>
       </c>
@@ -4987,7 +4908,7 @@
       <c r="Q104" s="6"/>
       <c r="R104" s="6"/>
     </row>
-    <row r="105" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="17.25">
       <c r="A105" s="4" t="s">
         <v>121</v>
       </c>
@@ -5011,7 +4932,7 @@
       <c r="Q105" s="6"/>
       <c r="R105" s="6"/>
     </row>
-    <row r="106" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="17.25">
       <c r="A106" s="4" t="s">
         <v>122</v>
       </c>
@@ -5035,7 +4956,7 @@
       <c r="Q106" s="6"/>
       <c r="R106" s="6"/>
     </row>
-    <row r="107" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="17.25">
       <c r="A107" s="4" t="s">
         <v>123</v>
       </c>
@@ -5067,33 +4988,31 @@
         <v>1334</v>
       </c>
       <c r="K107" s="5">
-        <f t="shared" ref="K107:K108" si="25">SUM(C107+D107+F107)</f>
-        <v>31</v>
+        <f>SUM(C107+D107+F107)</f>
       </c>
       <c r="L107" s="6">
         <v>1.199400299850075</v>
       </c>
       <c r="M107" s="6">
-        <v>0.29985007496251881</v>
+        <v>0.2998500749625188</v>
       </c>
       <c r="N107" s="6">
-        <v>0.22488755622188911</v>
+        <v>0.2248875562218891</v>
       </c>
       <c r="O107" s="6">
         <v>1.799100449775112</v>
       </c>
       <c r="P107" s="6">
-        <v>0.67466266866566715</v>
+        <v>0.6746626686656672</v>
       </c>
       <c r="Q107" s="6">
         <v>0.1499250374812594</v>
       </c>
       <c r="R107" s="6">
-        <f t="shared" ref="R107:R108" si="26">K107/J107*100</f>
-        <v>2.3238380809595203</v>
-      </c>
-    </row>
-    <row r="108" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f>K107/J107*100</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="17.25">
       <c r="A108" s="4" t="s">
         <v>124</v>
       </c>
@@ -5117,27 +5036,25 @@
         <v>19476</v>
       </c>
       <c r="K108" s="5">
-        <f t="shared" si="25"/>
-        <v>598</v>
+        <f>SUM(C108+D108+F108)</f>
       </c>
       <c r="L108" s="6">
-        <v>0.42103101252823988</v>
+        <v>0.4210310125282399</v>
       </c>
       <c r="M108" s="6">
         <v>1.001232285890326</v>
       </c>
       <c r="N108" s="6">
-        <v>2.0692133908400079</v>
+        <v>2.069213390840008</v>
       </c>
       <c r="O108" s="6"/>
       <c r="P108" s="6"/>
       <c r="Q108" s="6"/>
       <c r="R108" s="6">
-        <f t="shared" si="26"/>
-        <v>3.0704456767303347</v>
-      </c>
-    </row>
-    <row r="109" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f>K108/J108*100</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="17.25">
       <c r="A109" s="4" t="s">
         <v>125</v>
       </c>
@@ -5161,7 +5078,7 @@
       <c r="Q109" s="6"/>
       <c r="R109" s="6"/>
     </row>
-    <row r="110" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="17.25">
       <c r="A110" s="4" t="s">
         <v>126</v>
       </c>
@@ -5185,7 +5102,7 @@
       <c r="Q110" s="6"/>
       <c r="R110" s="6"/>
     </row>
-    <row r="111" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="17.25">
       <c r="A111" s="4" t="s">
         <v>127</v>
       </c>
@@ -5209,7 +5126,7 @@
       <c r="Q111" s="6"/>
       <c r="R111" s="6"/>
     </row>
-    <row r="112" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="17.25">
       <c r="A112" s="4" t="s">
         <v>128</v>
       </c>
@@ -5235,7 +5152,7 @@
       <c r="Q112" s="6"/>
       <c r="R112" s="6"/>
     </row>
-    <row r="113" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="17.25">
       <c r="A113" s="4" t="s">
         <v>129</v>
       </c>
@@ -5259,7 +5176,7 @@
       <c r="Q113" s="6"/>
       <c r="R113" s="6"/>
     </row>
-    <row r="114" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="17.25">
       <c r="A114" s="4" t="s">
         <v>130</v>
       </c>
@@ -5283,7 +5200,7 @@
       <c r="Q114" s="6"/>
       <c r="R114" s="6"/>
     </row>
-    <row r="115" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="17.25">
       <c r="A115" s="4" t="s">
         <v>131</v>
       </c>
@@ -5307,7 +5224,7 @@
       <c r="Q115" s="6"/>
       <c r="R115" s="6"/>
     </row>
-    <row r="116" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="17.25">
       <c r="A116" s="4" t="s">
         <v>132</v>
       </c>
@@ -5330,14 +5247,14 @@
       <c r="L116" s="6"/>
       <c r="M116" s="6"/>
       <c r="N116" s="6">
-        <v>8.223684210526315E-2</v>
+        <v>0.08223684210526315</v>
       </c>
       <c r="O116" s="6"/>
       <c r="P116" s="6"/>
       <c r="Q116" s="6"/>
       <c r="R116" s="6"/>
     </row>
-    <row r="117" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="17.25">
       <c r="A117" s="4" t="s">
         <v>133</v>
       </c>
@@ -5366,30 +5283,28 @@
       </c>
       <c r="K117" s="5">
         <f>SUM(C117+D117+F117)</f>
-        <v>205</v>
       </c>
       <c r="L117" s="6">
-        <v>5.9283851078966096E-3</v>
+        <v>0.00592838510789661</v>
       </c>
       <c r="M117" s="6">
-        <v>0.36755987668958973</v>
+        <v>0.3675598766895897</v>
       </c>
       <c r="N117" s="6">
-        <v>0.68769267251600663</v>
+        <v>0.6876926725160066</v>
       </c>
       <c r="O117" s="6">
-        <v>0.16006639791320851</v>
+        <v>0.1600663979132085</v>
       </c>
       <c r="P117" s="6">
-        <v>0.52169788949490159</v>
+        <v>0.5216978894949016</v>
       </c>
       <c r="Q117" s="6"/>
       <c r="R117" s="6">
         <f>K117/J117*100</f>
-        <v>1.2153189471188048</v>
-      </c>
-    </row>
-    <row r="118" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="17.25">
       <c r="A118" s="4" t="s">
         <v>134</v>
       </c>
@@ -5410,14 +5325,14 @@
       <c r="L118" s="6"/>
       <c r="M118" s="6"/>
       <c r="N118" s="6">
-        <v>6.1671292013567677E-2</v>
+        <v>0.06167129201356768</v>
       </c>
       <c r="O118" s="6"/>
       <c r="P118" s="6"/>
       <c r="Q118" s="6"/>
       <c r="R118" s="6"/>
     </row>
-    <row r="119" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="17.25">
       <c r="A119" s="4" t="s">
         <v>135</v>
       </c>
@@ -5441,7 +5356,7 @@
       <c r="Q119" s="6"/>
       <c r="R119" s="6"/>
     </row>
-    <row r="120" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="17.25">
       <c r="A120" s="4" t="s">
         <v>136</v>
       </c>
@@ -5467,7 +5382,7 @@
       <c r="Q120" s="6"/>
       <c r="R120" s="6"/>
     </row>
-    <row r="121" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="17.25">
       <c r="A121" s="4" t="s">
         <v>137</v>
       </c>
@@ -5497,7 +5412,7 @@
       <c r="Q121" s="6"/>
       <c r="R121" s="6"/>
     </row>
-    <row r="122" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="17.25">
       <c r="A122" s="4" t="s">
         <v>138</v>
       </c>
@@ -5521,8 +5436,7 @@
         <v>1413</v>
       </c>
       <c r="K122" s="5">
-        <f t="shared" ref="K122:K125" si="27">SUM(C122+D122+F122)</f>
-        <v>10</v>
+        <f>SUM(C122+D122+F122)</f>
       </c>
       <c r="L122" s="6">
         <v>0.1415428167020524</v>
@@ -5532,18 +5446,17 @@
       </c>
       <c r="N122" s="6"/>
       <c r="O122" s="6">
-        <v>0.56617126680820951</v>
+        <v>0.5661712668082095</v>
       </c>
       <c r="P122" s="6">
-        <v>3.2554847841472041</v>
+        <v>3.255484784147204</v>
       </c>
       <c r="Q122" s="6"/>
       <c r="R122" s="6">
-        <f t="shared" ref="R122:R125" si="28">K122/J122*100</f>
-        <v>0.70771408351026177</v>
-      </c>
-    </row>
-    <row r="123" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f>K122/J122*100</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="17.25">
       <c r="A123" s="4" t="s">
         <v>139</v>
       </c>
@@ -5571,29 +5484,27 @@
         <v>1747</v>
       </c>
       <c r="K123" s="5">
-        <f t="shared" si="27"/>
-        <v>97</v>
+        <f>SUM(C123+D123+F123)</f>
       </c>
       <c r="L123" s="6"/>
       <c r="M123" s="6">
-        <v>1.8889524899828281</v>
+        <v>1.888952489982828</v>
       </c>
       <c r="N123" s="6">
-        <v>3.6634230108757868</v>
+        <v>3.663423010875787</v>
       </c>
       <c r="O123" s="6"/>
       <c r="P123" s="6">
-        <v>3.4917000572409851</v>
+        <v>3.491700057240985</v>
       </c>
       <c r="Q123" s="6">
-        <v>2.9192902117916431</v>
+        <v>2.919290211791643</v>
       </c>
       <c r="R123" s="6">
-        <f t="shared" si="28"/>
-        <v>5.5523755008586146</v>
-      </c>
-    </row>
-    <row r="124" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f>K123/J123*100</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="17.25">
       <c r="A124" s="4" t="s">
         <v>140</v>
       </c>
@@ -5621,31 +5532,29 @@
         <v>8398</v>
       </c>
       <c r="K124" s="5">
-        <f t="shared" si="27"/>
-        <v>231</v>
+        <f>SUM(C124+D124+F124)</f>
       </c>
       <c r="L124" s="6">
-        <v>0.21433674684448681</v>
+        <v>0.2143367468444868</v>
       </c>
       <c r="M124" s="6">
-        <v>0.36913550845439391</v>
+        <v>0.3691355084543939</v>
       </c>
       <c r="N124" s="6">
-        <v>0.50011907597046912</v>
+        <v>0.5001190759704691</v>
       </c>
       <c r="O124" s="6">
         <v>1.881400333412717</v>
       </c>
       <c r="P124" s="6">
-        <v>0.83353179328411531</v>
+        <v>0.8335317932841153</v>
       </c>
       <c r="Q124" s="6"/>
       <c r="R124" s="6">
-        <f t="shared" si="28"/>
-        <v>2.7506549178375805</v>
-      </c>
-    </row>
-    <row r="125" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f>K124/J124*100</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="17.25">
       <c r="A125" s="4" t="s">
         <v>141</v>
       </c>
@@ -5667,25 +5576,23 @@
         <v>4528</v>
       </c>
       <c r="K125" s="5">
-        <f t="shared" si="27"/>
-        <v>1</v>
+        <f>SUM(C125+D125+F125)</f>
       </c>
       <c r="L125" s="6"/>
       <c r="M125" s="6">
-        <v>2.2084805653710252E-2</v>
+        <v>0.02208480565371025</v>
       </c>
       <c r="N125" s="6"/>
       <c r="O125" s="6"/>
       <c r="P125" s="6">
-        <v>8.8339222614840993E-2</v>
+        <v>0.08833922261484099</v>
       </c>
       <c r="Q125" s="6"/>
       <c r="R125" s="6">
-        <f t="shared" si="28"/>
-        <v>2.2084805653710248E-2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f>K125/J125*100</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="17.25">
       <c r="A126" s="4" t="s">
         <v>142</v>
       </c>
@@ -5711,7 +5618,7 @@
       <c r="Q126" s="6"/>
       <c r="R126" s="6"/>
     </row>
-    <row r="127" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="17.25">
       <c r="A127" s="4" t="s">
         <v>143</v>
       </c>
@@ -5731,25 +5638,23 @@
         <v>2504</v>
       </c>
       <c r="K127" s="5">
-        <f t="shared" ref="K127:K128" si="29">SUM(C127+D127+F127)</f>
-        <v>1</v>
+        <f>SUM(C127+D127+F127)</f>
       </c>
       <c r="L127" s="6">
-        <v>3.9936102236421717E-2</v>
+        <v>0.03993610223642172</v>
       </c>
       <c r="M127" s="6"/>
       <c r="N127" s="6"/>
       <c r="O127" s="6">
-        <v>3.9936102236421717E-2</v>
+        <v>0.03993610223642172</v>
       </c>
       <c r="P127" s="6"/>
       <c r="Q127" s="6"/>
       <c r="R127" s="6">
-        <f t="shared" ref="R127:R128" si="30">K127/J127*100</f>
-        <v>3.9936102236421724E-2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f>K127/J127*100</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="17.25">
       <c r="A128" s="4" t="s">
         <v>144</v>
       </c>
@@ -5781,20 +5686,19 @@
         <v>3879</v>
       </c>
       <c r="K128" s="5">
-        <f t="shared" si="29"/>
-        <v>433</v>
+        <f>SUM(C128+D128+F128)</f>
       </c>
       <c r="L128" s="6">
-        <v>1.4952307295694769</v>
+        <v>1.495230729569477</v>
       </c>
       <c r="M128" s="6">
-        <v>2.3201856148491879</v>
+        <v>2.320185614849188</v>
       </c>
       <c r="N128" s="6">
-        <v>5.1559680329981962E-2</v>
+        <v>0.05155968032998196</v>
       </c>
       <c r="O128" s="6">
-        <v>8.7909254962619219</v>
+        <v>8.790925496261922</v>
       </c>
       <c r="P128" s="6">
         <v>10.87909254962619</v>
@@ -5803,11 +5707,10 @@
         <v>0.2577984016499098</v>
       </c>
       <c r="R128" s="6">
-        <f t="shared" si="30"/>
-        <v>11.162670791441093</v>
-      </c>
-    </row>
-    <row r="129" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f>K128/J128*100</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="17.25">
       <c r="A129" s="4" t="s">
         <v>145</v>
       </c>
@@ -5831,7 +5734,7 @@
       <c r="Q129" s="6"/>
       <c r="R129" s="6"/>
     </row>
-    <row r="130" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="17.25">
       <c r="A130" s="4" t="s">
         <v>146</v>
       </c>
@@ -5851,25 +5754,23 @@
         <v>1187</v>
       </c>
       <c r="K130" s="5">
-        <f t="shared" ref="K130:K131" si="31">SUM(C130+D130+F130)</f>
-        <v>1</v>
+        <f>SUM(C130+D130+F130)</f>
       </c>
       <c r="L130" s="6"/>
       <c r="M130" s="6">
-        <v>8.4245998315080034E-2</v>
+        <v>0.08424599831508003</v>
       </c>
       <c r="N130" s="6"/>
       <c r="O130" s="6"/>
       <c r="P130" s="6">
-        <v>0.25273799494524007</v>
+        <v>0.2527379949452401</v>
       </c>
       <c r="Q130" s="6"/>
       <c r="R130" s="6">
-        <f t="shared" ref="R130:R131" si="32">K130/J130*100</f>
-        <v>8.4245998315080034E-2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f>K130/J130*100</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="17.25">
       <c r="A131" s="4" t="s">
         <v>147</v>
       </c>
@@ -5893,27 +5794,25 @@
         <v>1312</v>
       </c>
       <c r="K131" s="5">
-        <f t="shared" si="31"/>
-        <v>2</v>
+        <f>SUM(C131+D131+F131)</f>
       </c>
       <c r="L131" s="6"/>
       <c r="M131" s="6">
-        <v>7.621951219512195E-2</v>
+        <v>0.07621951219512195</v>
       </c>
       <c r="N131" s="6"/>
       <c r="O131" s="6">
-        <v>7.621951219512195E-2</v>
+        <v>0.07621951219512195</v>
       </c>
       <c r="P131" s="6">
         <v>0.1524390243902439</v>
       </c>
       <c r="Q131" s="6"/>
       <c r="R131" s="6">
-        <f t="shared" si="32"/>
-        <v>0.1524390243902439</v>
-      </c>
-    </row>
-    <row r="132" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f>K131/J131*100</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="17.25">
       <c r="A132" s="4" t="s">
         <v>148</v>
       </c>
@@ -5937,7 +5836,7 @@
       <c r="Q132" s="6"/>
       <c r="R132" s="6"/>
     </row>
-    <row r="133" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="17.25">
       <c r="A133" s="4" t="s">
         <v>149</v>
       </c>
@@ -5961,7 +5860,7 @@
       <c r="Q133" s="6"/>
       <c r="R133" s="6"/>
     </row>
-    <row r="134" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="17.25">
       <c r="A134" s="4" t="s">
         <v>150</v>
       </c>
@@ -5990,19 +5889,18 @@
       </c>
       <c r="K134" s="5">
         <f>SUM(C134+D134+F134)</f>
-        <v>31</v>
       </c>
       <c r="L134" s="6">
-        <v>1.6450074025333109E-2</v>
+        <v>0.01645007402533311</v>
       </c>
       <c r="M134" s="6">
-        <v>0.14805066622799801</v>
+        <v>0.148050666227998</v>
       </c>
       <c r="N134" s="6">
-        <v>3.2900148050666232E-2</v>
+        <v>0.03290014805066623</v>
       </c>
       <c r="O134" s="6">
-        <v>0.32900148050666228</v>
+        <v>0.3290014805066623</v>
       </c>
       <c r="P134" s="6">
         <v>1.464056588254647</v>
@@ -6010,10 +5908,9 @@
       <c r="Q134" s="6"/>
       <c r="R134" s="6">
         <f>K134/J134*100</f>
-        <v>0.50995229478532655</v>
-      </c>
-    </row>
-    <row r="135" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="17.25">
       <c r="A135" s="4" t="s">
         <v>151</v>
       </c>
@@ -6037,7 +5934,7 @@
       <c r="Q135" s="6"/>
       <c r="R135" s="6"/>
     </row>
-    <row r="136" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="17.25">
       <c r="A136" s="4" t="s">
         <v>152</v>
       </c>
@@ -6060,24 +5957,22 @@
       </c>
       <c r="K136" s="5">
         <f>SUM(C136+D136+F136)</f>
-        <v>1</v>
       </c>
       <c r="L136" s="6"/>
       <c r="M136" s="6">
-        <v>1.347345728914039E-2</v>
+        <v>0.01347345728914039</v>
       </c>
       <c r="N136" s="6"/>
       <c r="O136" s="6"/>
       <c r="P136" s="6">
-        <v>6.7367286445701974E-2</v>
+        <v>0.06736728644570197</v>
       </c>
       <c r="Q136" s="6"/>
       <c r="R136" s="6">
         <f>K136/J136*100</f>
-        <v>1.3473457289140393E-2</v>
-      </c>
-    </row>
-    <row r="137" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="17.25">
       <c r="A137" s="4" t="s">
         <v>153</v>
       </c>
@@ -6103,7 +5998,7 @@
       <c r="Q137" s="6"/>
       <c r="R137" s="6"/>
     </row>
-    <row r="138" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="17.25">
       <c r="A138" s="4" t="s">
         <v>154</v>
       </c>
@@ -6127,7 +6022,7 @@
       <c r="Q138" s="6"/>
       <c r="R138" s="6"/>
     </row>
-    <row r="139" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="17.25">
       <c r="A139" s="4" t="s">
         <v>155</v>
       </c>
@@ -6148,14 +6043,14 @@
       <c r="L139" s="6"/>
       <c r="M139" s="6"/>
       <c r="N139" s="6">
-        <v>8.6730268863833476E-2</v>
+        <v>0.08673026886383348</v>
       </c>
       <c r="O139" s="6"/>
       <c r="P139" s="6"/>
       <c r="Q139" s="6"/>
       <c r="R139" s="6"/>
     </row>
-    <row r="140" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="17.25">
       <c r="A140" s="4" t="s">
         <v>156</v>
       </c>
@@ -6178,15 +6073,14 @@
       </c>
       <c r="K140" s="5">
         <f>SUM(C140+D140+F140)</f>
-        <v>4</v>
       </c>
       <c r="L140" s="6"/>
       <c r="M140" s="6">
-        <v>0.41928721174004202</v>
+        <v>0.419287211740042</v>
       </c>
       <c r="N140" s="6"/>
       <c r="O140" s="6">
-        <v>0.41928721174004202</v>
+        <v>0.419287211740042</v>
       </c>
       <c r="P140" s="6">
         <v>1.257861635220126</v>
@@ -6194,10 +6088,9 @@
       <c r="Q140" s="6"/>
       <c r="R140" s="6">
         <f>K140/J140*100</f>
-        <v>0.83857442348008393</v>
-      </c>
-    </row>
-    <row r="141" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="17.25">
       <c r="A141" s="4" t="s">
         <v>157</v>
       </c>
@@ -6221,7 +6114,7 @@
       <c r="Q141" s="6"/>
       <c r="R141" s="6"/>
     </row>
-    <row r="142" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="17.25">
       <c r="A142" s="4" t="s">
         <v>158</v>
       </c>
@@ -6245,7 +6138,7 @@
       <c r="Q142" s="6"/>
       <c r="R142" s="6"/>
     </row>
-    <row r="143" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="17.25">
       <c r="A143" s="4" t="s">
         <v>159</v>
       </c>
@@ -6268,24 +6161,22 @@
       </c>
       <c r="K143" s="5">
         <f>SUM(C143+D143+F143)</f>
-        <v>40</v>
       </c>
       <c r="L143" s="6"/>
       <c r="M143" s="6">
         <v>0.322506334945865</v>
       </c>
       <c r="N143" s="6">
-        <v>0.59894033632803501</v>
+        <v>0.598940336328035</v>
       </c>
       <c r="O143" s="6"/>
       <c r="P143" s="6"/>
       <c r="Q143" s="6"/>
       <c r="R143" s="6">
         <f>K143/J143*100</f>
-        <v>0.92144667127390012</v>
-      </c>
-    </row>
-    <row r="144" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="17.25">
       <c r="A144" s="4" t="s">
         <v>160</v>
       </c>
@@ -6309,7 +6200,7 @@
       <c r="Q144" s="6"/>
       <c r="R144" s="6"/>
     </row>
-    <row r="145" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="17.25">
       <c r="A145" s="4" t="s">
         <v>161</v>
       </c>
@@ -6334,26 +6225,24 @@
       </c>
       <c r="K145" s="5">
         <f>SUM(C145+D145+F145)</f>
-        <v>2</v>
       </c>
       <c r="L145" s="6"/>
       <c r="M145" s="6">
-        <v>6.4557779212395083E-2</v>
+        <v>0.06455777921239508</v>
       </c>
       <c r="N145" s="6">
-        <v>6.4557779212395083E-2</v>
+        <v>0.06455777921239508</v>
       </c>
       <c r="O145" s="6"/>
       <c r="P145" s="6">
-        <v>0.25823111684958028</v>
+        <v>0.2582311168495803</v>
       </c>
       <c r="Q145" s="6"/>
       <c r="R145" s="6">
         <f>K145/J145*100</f>
-        <v>0.12911555842479017</v>
-      </c>
-    </row>
-    <row r="146" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="17.25">
       <c r="A146" s="4" t="s">
         <v>162</v>
       </c>
@@ -6377,7 +6266,7 @@
       <c r="Q146" s="6"/>
       <c r="R146" s="6"/>
     </row>
-    <row r="147" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="17.25">
       <c r="A147" s="4" t="s">
         <v>163</v>
       </c>
@@ -6400,24 +6289,22 @@
       </c>
       <c r="K147" s="5">
         <f>SUM(C147+D147+F147)</f>
-        <v>1</v>
       </c>
       <c r="L147" s="6">
-        <v>9.940357852882703E-2</v>
+        <v>0.09940357852882703</v>
       </c>
       <c r="M147" s="6"/>
       <c r="N147" s="6"/>
       <c r="O147" s="6">
-        <v>9.940357852882703E-2</v>
+        <v>0.09940357852882703</v>
       </c>
       <c r="P147" s="6"/>
       <c r="Q147" s="6"/>
       <c r="R147" s="6">
         <f>K147/J147*100</f>
-        <v>9.940357852882703E-2</v>
-      </c>
-    </row>
-    <row r="148" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="17.25">
       <c r="A148" s="4" t="s">
         <v>164</v>
       </c>
@@ -6443,7 +6330,7 @@
       <c r="Q148" s="6"/>
       <c r="R148" s="6"/>
     </row>
-    <row r="149" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="17.25">
       <c r="A149" s="4" t="s">
         <v>165</v>
       </c>
@@ -6469,7 +6356,7 @@
       <c r="Q149" s="6"/>
       <c r="R149" s="6"/>
     </row>
-    <row r="150" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="17.25">
       <c r="A150" s="4" t="s">
         <v>166</v>
       </c>
@@ -6495,7 +6382,7 @@
       <c r="Q150" s="6"/>
       <c r="R150" s="6"/>
     </row>
-    <row r="151" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="17.25">
       <c r="A151" s="4" t="s">
         <v>167</v>
       </c>
@@ -6519,7 +6406,7 @@
       <c r="Q151" s="6"/>
       <c r="R151" s="6"/>
     </row>
-    <row r="152" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="17.25">
       <c r="A152" s="4" t="s">
         <v>168</v>
       </c>
@@ -6543,7 +6430,7 @@
       <c r="Q152" s="6"/>
       <c r="R152" s="6"/>
     </row>
-    <row r="153" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="17.25">
       <c r="A153" s="4" t="s">
         <v>169</v>
       </c>
@@ -6567,7 +6454,7 @@
       <c r="Q153" s="6"/>
       <c r="R153" s="6"/>
     </row>
-    <row r="154" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="17.25">
       <c r="A154" s="4" t="s">
         <v>170</v>
       </c>
@@ -6596,30 +6483,28 @@
       </c>
       <c r="K154" s="5">
         <f>SUM(C154+D154+F154)</f>
-        <v>21</v>
       </c>
       <c r="L154" s="6">
-        <v>0.19607843137254899</v>
+        <v>0.196078431372549</v>
       </c>
       <c r="M154" s="6">
-        <v>0.78431372549019607</v>
+        <v>0.7843137254901961</v>
       </c>
       <c r="N154" s="6">
         <v>1.07843137254902</v>
       </c>
       <c r="O154" s="6">
-        <v>0.19607843137254899</v>
+        <v>0.196078431372549</v>
       </c>
       <c r="P154" s="6">
-        <v>1.3725490196078429</v>
+        <v>1.372549019607843</v>
       </c>
       <c r="Q154" s="6"/>
       <c r="R154" s="6">
         <f>K154/J154*100</f>
-        <v>2.0588235294117645</v>
-      </c>
-    </row>
-    <row r="155" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="17.25">
       <c r="A155" s="4" t="s">
         <v>171</v>
       </c>
@@ -6643,7 +6528,7 @@
       <c r="Q155" s="6"/>
       <c r="R155" s="6"/>
     </row>
-    <row r="156" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="17.25">
       <c r="A156" s="4" t="s">
         <v>172</v>
       </c>
@@ -6668,26 +6553,24 @@
       </c>
       <c r="K156" s="5">
         <f>SUM(C156+D156+F156)</f>
-        <v>3</v>
       </c>
       <c r="L156" s="6"/>
       <c r="M156" s="6">
-        <v>8.579272477693892E-3</v>
+        <v>0.008579272477693892</v>
       </c>
       <c r="N156" s="6"/>
       <c r="O156" s="6">
-        <v>1.7158544955387781E-2</v>
+        <v>0.01715854495538778</v>
       </c>
       <c r="P156" s="6">
-        <v>2.5737817433081681E-2</v>
+        <v>0.02573781743308168</v>
       </c>
       <c r="Q156" s="6"/>
       <c r="R156" s="6">
         <f>K156/J156*100</f>
-        <v>2.5737817433081678E-2</v>
-      </c>
-    </row>
-    <row r="157" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="17.25">
       <c r="A157" s="4" t="s">
         <v>173</v>
       </c>
@@ -6713,7 +6596,7 @@
       <c r="Q157" s="6"/>
       <c r="R157" s="6"/>
     </row>
-    <row r="158" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="17.25">
       <c r="A158" s="4" t="s">
         <v>174</v>
       </c>
@@ -6737,7 +6620,7 @@
       <c r="Q158" s="6"/>
       <c r="R158" s="6"/>
     </row>
-    <row r="159" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="17.25">
       <c r="A159" s="4" t="s">
         <v>175</v>
       </c>
@@ -6761,7 +6644,7 @@
       <c r="Q159" s="6"/>
       <c r="R159" s="6"/>
     </row>
-    <row r="160" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="17.25">
       <c r="A160" s="4" t="s">
         <v>176</v>
       </c>
@@ -6784,14 +6667,14 @@
       <c r="L160" s="6"/>
       <c r="M160" s="6"/>
       <c r="N160" s="6">
-        <v>8.3682008368200833E-2</v>
+        <v>0.08368200836820083</v>
       </c>
       <c r="O160" s="6"/>
       <c r="P160" s="6"/>
       <c r="Q160" s="6"/>
       <c r="R160" s="6"/>
     </row>
-    <row r="161" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="17.25">
       <c r="A161" s="4" t="s">
         <v>177</v>
       </c>
@@ -6820,28 +6703,26 @@
       </c>
       <c r="K161" s="5">
         <f>SUM(C161+D161+F161)</f>
-        <v>116</v>
       </c>
       <c r="L161" s="6"/>
       <c r="M161" s="6">
-        <v>1.1993349142748111E-2</v>
+        <v>0.01199334914274811</v>
       </c>
       <c r="N161" s="6">
-        <v>5.1244309973560123E-2</v>
+        <v>0.05124430997356012</v>
       </c>
       <c r="O161" s="6"/>
       <c r="P161" s="6">
-        <v>5.615068007741162E-2</v>
+        <v>0.05615068007741162</v>
       </c>
       <c r="Q161" s="6">
-        <v>5.4515223376127783E-4</v>
+        <v>0.0005451522337612778</v>
       </c>
       <c r="R161" s="6">
         <f>K161/J161*100</f>
-        <v>6.3237659116308229E-2</v>
-      </c>
-    </row>
-    <row r="162" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="17.25">
       <c r="A162" s="4" t="s">
         <v>178</v>
       </c>
@@ -6865,7 +6746,7 @@
       <c r="Q162" s="6"/>
       <c r="R162" s="6"/>
     </row>
-    <row r="163" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="17.25">
       <c r="A163" s="4" t="s">
         <v>179</v>
       </c>
@@ -6890,26 +6771,24 @@
       </c>
       <c r="K163" s="5">
         <f>SUM(C163+D163+F163)</f>
-        <v>230</v>
       </c>
       <c r="L163" s="6"/>
       <c r="M163" s="6">
-        <v>9.2246667589133344E-3</v>
+        <v>0.009224666758913334</v>
       </c>
       <c r="N163" s="6">
-        <v>0.52119367187860333</v>
+        <v>0.5211936718786033</v>
       </c>
       <c r="O163" s="6"/>
       <c r="P163" s="6">
-        <v>0.52580600525806009</v>
+        <v>0.5258060052580601</v>
       </c>
       <c r="Q163" s="6"/>
       <c r="R163" s="6">
         <f>K163/J163*100</f>
-        <v>0.53041833863751675</v>
-      </c>
-    </row>
-    <row r="164" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="17.25">
       <c r="A164" s="4" t="s">
         <v>180</v>
       </c>
@@ -6932,14 +6811,14 @@
       <c r="L164" s="6"/>
       <c r="M164" s="6"/>
       <c r="N164" s="6">
-        <v>0.49790356394129981</v>
+        <v>0.4979035639412998</v>
       </c>
       <c r="O164" s="6"/>
       <c r="P164" s="6"/>
       <c r="Q164" s="6"/>
       <c r="R164" s="6"/>
     </row>
-    <row r="165" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="17.25">
       <c r="A165" s="4" t="s">
         <v>181</v>
       </c>
@@ -6963,7 +6842,7 @@
       <c r="Q165" s="6"/>
       <c r="R165" s="6"/>
     </row>
-    <row r="166" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="17.25">
       <c r="A166" s="4" t="s">
         <v>182</v>
       </c>
@@ -6988,26 +6867,24 @@
       </c>
       <c r="K166" s="5">
         <f>SUM(C166+D166+F166)</f>
-        <v>5</v>
       </c>
       <c r="L166" s="6"/>
       <c r="M166" s="6">
-        <v>2.7427317608337911E-2</v>
+        <v>0.02742731760833791</v>
       </c>
       <c r="N166" s="6">
         <v>0.1097092704333516</v>
       </c>
       <c r="O166" s="6"/>
       <c r="P166" s="6">
-        <v>5.4854635216675808E-2</v>
+        <v>0.05485463521667581</v>
       </c>
       <c r="Q166" s="6"/>
       <c r="R166" s="6">
         <f>K166/J166*100</f>
-        <v>0.13713658804168952</v>
-      </c>
-    </row>
-    <row r="167" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="17.25">
       <c r="A167" s="4" t="s">
         <v>183</v>
       </c>
@@ -7031,7 +6908,7 @@
       <c r="Q167" s="6"/>
       <c r="R167" s="6"/>
     </row>
-    <row r="168" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="17.25">
       <c r="A168" s="4" t="s">
         <v>184</v>
       </c>
@@ -7057,7 +6934,7 @@
       <c r="Q168" s="6"/>
       <c r="R168" s="6"/>
     </row>
-    <row r="169" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="17.25">
       <c r="A169" s="4" t="s">
         <v>185</v>
       </c>
@@ -7081,7 +6958,7 @@
       <c r="Q169" s="6"/>
       <c r="R169" s="6"/>
     </row>
-    <row r="170" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="17.25">
       <c r="A170" s="4" t="s">
         <v>186</v>
       </c>
@@ -7102,14 +6979,14 @@
       <c r="L170" s="6"/>
       <c r="M170" s="6"/>
       <c r="N170" s="6">
-        <v>0.37453183520599248</v>
+        <v>0.3745318352059925</v>
       </c>
       <c r="O170" s="6"/>
       <c r="P170" s="6"/>
       <c r="Q170" s="6"/>
       <c r="R170" s="6"/>
     </row>
-    <row r="171" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="17.25">
       <c r="A171" s="4" t="s">
         <v>187</v>
       </c>
@@ -7133,7 +7010,7 @@
       <c r="Q171" s="6"/>
       <c r="R171" s="6"/>
     </row>
-    <row r="172" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="17.25">
       <c r="A172" s="4" t="s">
         <v>188</v>
       </c>
@@ -7157,7 +7034,7 @@
       <c r="Q172" s="6"/>
       <c r="R172" s="6"/>
     </row>
-    <row r="173" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="17.25">
       <c r="A173" s="4" t="s">
         <v>189</v>
       </c>
@@ -7178,7 +7055,6 @@
       </c>
       <c r="K173" s="5">
         <f>SUM(C173+D173+F173)</f>
-        <v>21</v>
       </c>
       <c r="L173" s="6"/>
       <c r="M173" s="6">
@@ -7192,10 +7068,9 @@
       <c r="Q173" s="6"/>
       <c r="R173" s="6">
         <f>K173/J173*100</f>
-        <v>1.634241245136187</v>
-      </c>
-    </row>
-    <row r="174" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="17.25">
       <c r="A174" s="4" t="s">
         <v>190</v>
       </c>
@@ -7219,7 +7094,7 @@
       <c r="Q174" s="6"/>
       <c r="R174" s="6"/>
     </row>
-    <row r="175" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="17.25">
       <c r="A175" s="4" t="s">
         <v>191</v>
       </c>
@@ -7243,7 +7118,7 @@
       <c r="Q175" s="6"/>
       <c r="R175" s="6"/>
     </row>
-    <row r="176" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="17.25">
       <c r="A176" s="4" t="s">
         <v>192</v>
       </c>
@@ -7267,7 +7142,7 @@
       <c r="Q176" s="6"/>
       <c r="R176" s="6"/>
     </row>
-    <row r="177" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="17.25">
       <c r="A177" s="4" t="s">
         <v>193</v>
       </c>
@@ -7291,7 +7166,7 @@
       <c r="Q177" s="6"/>
       <c r="R177" s="6"/>
     </row>
-    <row r="178" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="17.25">
       <c r="A178" s="4" t="s">
         <v>194</v>
       </c>
@@ -7319,31 +7194,29 @@
         <v>7979</v>
       </c>
       <c r="K178" s="5">
-        <f t="shared" ref="K178:K179" si="33">SUM(C178+D178+F178)</f>
-        <v>5</v>
+        <f>SUM(C178+D178+F178)</f>
       </c>
       <c r="L178" s="6">
-        <v>1.25328988595062E-2</v>
+        <v>0.0125328988595062</v>
       </c>
       <c r="M178" s="6">
-        <v>1.25328988595062E-2</v>
+        <v>0.0125328988595062</v>
       </c>
       <c r="N178" s="6">
-        <v>2.5065797719012409E-2</v>
+        <v>0.02506579771901241</v>
       </c>
       <c r="O178" s="6">
-        <v>2.5065797719012409E-2</v>
+        <v>0.02506579771901241</v>
       </c>
       <c r="P178" s="6">
-        <v>2.5065797719012409E-2</v>
+        <v>0.02506579771901241</v>
       </c>
       <c r="Q178" s="6"/>
       <c r="R178" s="6">
-        <f t="shared" ref="R178:R179" si="34">K178/J178*100</f>
-        <v>6.2664494297531029E-2</v>
-      </c>
-    </row>
-    <row r="179" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f>K178/J178*100</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="17.25">
       <c r="A179" s="4" t="s">
         <v>195</v>
       </c>
@@ -7371,31 +7244,29 @@
         <v>10624</v>
       </c>
       <c r="K179" s="5">
-        <f t="shared" si="33"/>
-        <v>205</v>
+        <f>SUM(C179+D179+F179)</f>
       </c>
       <c r="L179" s="6">
-        <v>3.7650602409638557E-2</v>
+        <v>0.03765060240963856</v>
       </c>
       <c r="M179" s="6">
-        <v>1.2518825301204819</v>
+        <v>1.251882530120482</v>
       </c>
       <c r="N179" s="6">
-        <v>0.58358433734939752</v>
+        <v>0.5835843373493975</v>
       </c>
       <c r="O179" s="6">
-        <v>9.412650602409639E-2</v>
+        <v>0.09412650602409639</v>
       </c>
       <c r="P179" s="6">
-        <v>1.4213102409638549</v>
+        <v>1.421310240963855</v>
       </c>
       <c r="Q179" s="6"/>
       <c r="R179" s="6">
-        <f t="shared" si="34"/>
-        <v>1.9295933734939759</v>
-      </c>
-    </row>
-    <row r="180" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f>K179/J179*100</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="17.25">
       <c r="A180" s="4" t="s">
         <v>196</v>
       </c>
@@ -7419,7 +7290,7 @@
       <c r="Q180" s="6"/>
       <c r="R180" s="6"/>
     </row>
-    <row r="181" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="17.25">
       <c r="A181" s="4" t="s">
         <v>197</v>
       </c>
@@ -7447,31 +7318,29 @@
         <v>10490</v>
       </c>
       <c r="K181" s="5">
-        <f t="shared" ref="K181:K184" si="35">SUM(C181+D181+F181)</f>
-        <v>29</v>
+        <f>SUM(C181+D181+F181)</f>
       </c>
       <c r="L181" s="6">
-        <v>7.6263107721639647E-2</v>
+        <v>0.07626310772163965</v>
       </c>
       <c r="M181" s="6">
-        <v>0.11439466158245951</v>
+        <v>0.1143946615824595</v>
       </c>
       <c r="N181" s="6">
-        <v>3.8131553860819817E-2</v>
+        <v>0.03813155386081982</v>
       </c>
       <c r="O181" s="6">
-        <v>0.12392755004766449</v>
+        <v>0.1239275500476645</v>
       </c>
       <c r="P181" s="6">
-        <v>0.17159199237368919</v>
+        <v>0.1715919923736892</v>
       </c>
       <c r="Q181" s="6"/>
       <c r="R181" s="6">
-        <f t="shared" ref="R181:R184" si="36">K181/J181*100</f>
-        <v>0.27645376549094375</v>
-      </c>
-    </row>
-    <row r="182" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f>K181/J181*100</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="17.25">
       <c r="A182" s="4" t="s">
         <v>198</v>
       </c>
@@ -7495,14 +7364,13 @@
         <v>5778</v>
       </c>
       <c r="K182" s="5">
-        <f t="shared" si="35"/>
-        <v>80</v>
+        <f>SUM(C182+D182+F182)</f>
       </c>
       <c r="L182" s="6">
-        <v>1.0384215991692629</v>
+        <v>1.038421599169263</v>
       </c>
       <c r="M182" s="6">
-        <v>0.24229837313949459</v>
+        <v>0.2422983731394946</v>
       </c>
       <c r="N182" s="6">
         <v>1.142263759086189</v>
@@ -7511,11 +7379,10 @@
       <c r="P182" s="6"/>
       <c r="Q182" s="6"/>
       <c r="R182" s="6">
-        <f t="shared" si="36"/>
-        <v>1.3845621322256836</v>
-      </c>
-    </row>
-    <row r="183" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f>K182/J182*100</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="17.25">
       <c r="A183" s="4" t="s">
         <v>199</v>
       </c>
@@ -7539,8 +7406,7 @@
         <v>4824</v>
       </c>
       <c r="K183" s="5">
-        <f t="shared" si="35"/>
-        <v>229</v>
+        <f>SUM(C183+D183+F183)</f>
       </c>
       <c r="L183" s="6">
         <v>2.487562189054727</v>
@@ -7549,17 +7415,16 @@
         <v>3.233830845771144</v>
       </c>
       <c r="N183" s="6">
-        <v>1.5132669983416249</v>
+        <v>1.513266998341625</v>
       </c>
       <c r="O183" s="6"/>
       <c r="P183" s="6"/>
       <c r="Q183" s="6"/>
       <c r="R183" s="6">
-        <f t="shared" si="36"/>
-        <v>4.7470978441127691</v>
-      </c>
-    </row>
-    <row r="184" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f>K183/J183*100</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="17.25">
       <c r="A184" s="4" t="s">
         <v>200</v>
       </c>
@@ -7585,29 +7450,27 @@
         <v>1927</v>
       </c>
       <c r="K184" s="5">
-        <f t="shared" si="35"/>
-        <v>3</v>
+        <f>SUM(C184+D184+F184)</f>
       </c>
       <c r="L184" s="6"/>
       <c r="M184" s="6">
-        <v>5.1894135962636222E-2</v>
+        <v>0.05189413596263622</v>
       </c>
       <c r="N184" s="6">
-        <v>5.1894135962636222E-2</v>
+        <v>0.05189413596263622</v>
       </c>
       <c r="O184" s="6">
-        <v>5.1894135962636222E-2</v>
+        <v>0.05189413596263622</v>
       </c>
       <c r="P184" s="6">
         <v>0.1037882719252724</v>
       </c>
       <c r="Q184" s="6"/>
       <c r="R184" s="6">
-        <f t="shared" si="36"/>
-        <v>0.15568240788790866</v>
-      </c>
-    </row>
-    <row r="185" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f>K184/J184*100</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="17.25">
       <c r="A185" s="4" t="s">
         <v>201</v>
       </c>
@@ -7633,7 +7496,7 @@
       <c r="Q185" s="6"/>
       <c r="R185" s="6"/>
     </row>
-    <row r="186" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="17.25">
       <c r="A186" s="4" t="s">
         <v>202</v>
       </c>
@@ -7658,17 +7521,16 @@
       </c>
       <c r="K186" s="5">
         <f>SUM(C186+D186+F186)</f>
-        <v>11</v>
       </c>
       <c r="L186" s="6"/>
       <c r="M186" s="6">
-        <v>9.0279867589527524E-2</v>
+        <v>0.09027986758952752</v>
       </c>
       <c r="N186" s="6">
-        <v>0.15046644598254591</v>
+        <v>0.1504664459825459</v>
       </c>
       <c r="O186" s="6">
-        <v>9.0279867589527524E-2</v>
+        <v>0.09027986758952752</v>
       </c>
       <c r="P186" s="6">
         <v>0.2708396027685826</v>
@@ -7676,10 +7538,9 @@
       <c r="Q186" s="6"/>
       <c r="R186" s="6">
         <f>K186/J186*100</f>
-        <v>0.33102618116160099</v>
-      </c>
-    </row>
-    <row r="187" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="17.25">
       <c r="A187" s="4" t="s">
         <v>203</v>
       </c>
@@ -7703,7 +7564,7 @@
       <c r="Q187" s="6"/>
       <c r="R187" s="6"/>
     </row>
-    <row r="188" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="17.25">
       <c r="A188" s="4" t="s">
         <v>204</v>
       </c>
@@ -7727,7 +7588,7 @@
       <c r="Q188" s="6"/>
       <c r="R188" s="6"/>
     </row>
-    <row r="189" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="19.5">
       <c r="A189" s="4" t="s">
         <v>205</v>
       </c>
@@ -7752,25 +7613,24 @@
       </c>
       <c r="K189" s="5">
         <f>SUM(C189+D189+F189)</f>
-        <v>422</v>
       </c>
       <c r="L189" s="6">
-        <v>0.74226333219138974</v>
+        <v>0.7422633321913897</v>
       </c>
       <c r="M189" s="6">
-        <v>8.2790910129039622E-2</v>
+        <v>0.08279091012903962</v>
       </c>
       <c r="N189" s="6">
-        <v>0.31879258497963542</v>
+        <v>0.3187925849796354</v>
       </c>
       <c r="O189" s="6"/>
       <c r="P189" s="6"/>
       <c r="Q189" s="6"/>
       <c r="R189" s="6">
-        <v>1.903239313311256E-3</v>
-      </c>
-    </row>
-    <row r="190" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0.001903239313311256</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="17.25">
       <c r="A190" s="4" t="s">
         <v>206</v>
       </c>
@@ -7794,7 +7654,7 @@
       <c r="Q190" s="6"/>
       <c r="R190" s="6"/>
     </row>
-    <row r="191" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="17.25">
       <c r="A191" s="4" t="s">
         <v>207</v>
       </c>
@@ -7823,30 +7683,28 @@
       </c>
       <c r="K191" s="5">
         <f>SUM(C191+D191+F191)</f>
-        <v>89</v>
       </c>
       <c r="L191" s="6">
-        <v>7.3610599926389395E-2</v>
+        <v>0.0736105999263894</v>
       </c>
       <c r="M191" s="6"/>
       <c r="N191" s="6">
-        <v>3.1284504968715501</v>
+        <v>3.12845049687155</v>
       </c>
       <c r="O191" s="6">
-        <v>0.14722119985277879</v>
+        <v>0.1472211998527788</v>
       </c>
       <c r="P191" s="6">
-        <v>0.14722119985277879</v>
+        <v>0.1472211998527788</v>
       </c>
       <c r="Q191" s="6">
-        <v>0.77291129922708868</v>
+        <v>0.7729112992270887</v>
       </c>
       <c r="R191" s="6">
         <f>K191/J191*100</f>
-        <v>3.2756716967243285</v>
-      </c>
-    </row>
-    <row r="192" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="17.25">
       <c r="A192" s="4" t="s">
         <v>208</v>
       </c>
@@ -7870,7 +7728,7 @@
       <c r="Q192" s="6"/>
       <c r="R192" s="6"/>
     </row>
-    <row r="193" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="17.25">
       <c r="A193" s="4" t="s">
         <v>209</v>
       </c>
@@ -7894,7 +7752,7 @@
       <c r="Q193" s="6"/>
       <c r="R193" s="6"/>
     </row>
-    <row r="194" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="17.25">
       <c r="A194" s="4" t="s">
         <v>210</v>
       </c>
@@ -7914,25 +7772,23 @@
         <v>29353</v>
       </c>
       <c r="K194" s="5">
-        <f t="shared" ref="K194:K195" si="37">SUM(C194+D194+F194)</f>
-        <v>4</v>
+        <f>SUM(C194+D194+F194)</f>
       </c>
       <c r="L194" s="6"/>
       <c r="M194" s="6">
-        <v>1.3627227199945489E-2</v>
+        <v>0.01362722719994549</v>
       </c>
       <c r="N194" s="6"/>
       <c r="O194" s="6"/>
       <c r="P194" s="6">
-        <v>1.703403399993186E-2</v>
+        <v>0.01703403399993186</v>
       </c>
       <c r="Q194" s="6"/>
       <c r="R194" s="6">
-        <f t="shared" ref="R194:R195" si="38">K194/J194*100</f>
-        <v>1.3627227199945491E-2</v>
-      </c>
-    </row>
-    <row r="195" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f>K194/J194*100</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="17.25">
       <c r="A195" s="4" t="s">
         <v>211</v>
       </c>
@@ -7958,29 +7814,27 @@
         <v>3195</v>
       </c>
       <c r="K195" s="5">
-        <f t="shared" si="37"/>
-        <v>19</v>
+        <f>SUM(C195+D195+F195)</f>
       </c>
       <c r="L195" s="6">
-        <v>3.1298904538341159E-2</v>
+        <v>0.03129890453834116</v>
       </c>
       <c r="M195" s="6">
-        <v>6.2597809076682318E-2</v>
+        <v>0.06259780907668232</v>
       </c>
       <c r="N195" s="6"/>
       <c r="O195" s="6">
-        <v>0.53208137715179971</v>
+        <v>0.5320813771517997</v>
       </c>
       <c r="P195" s="6">
         <v>0.3129890453834116</v>
       </c>
       <c r="Q195" s="6"/>
       <c r="R195" s="6">
-        <f t="shared" si="38"/>
-        <v>0.59467918622848193</v>
-      </c>
-    </row>
-    <row r="196" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f>K195/J195*100</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="17.25">
       <c r="A196" s="4" t="s">
         <v>212</v>
       </c>
@@ -8006,7 +7860,7 @@
       <c r="Q196" s="6"/>
       <c r="R196" s="6"/>
     </row>
-    <row r="197" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="17.25">
       <c r="A197" s="4" t="s">
         <v>213</v>
       </c>
@@ -8030,7 +7884,7 @@
       <c r="Q197" s="6"/>
       <c r="R197" s="6"/>
     </row>
-    <row r="198" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="17.25">
       <c r="A198" s="4" t="s">
         <v>214</v>
       </c>
@@ -8054,7 +7908,7 @@
       <c r="Q198" s="6"/>
       <c r="R198" s="6"/>
     </row>
-    <row r="199" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="17.25">
       <c r="A199" s="4" t="s">
         <v>215</v>
       </c>
@@ -8079,28 +7933,26 @@
       </c>
       <c r="K199" s="5">
         <f>SUM(C199+D199+F199)</f>
-        <v>9</v>
       </c>
       <c r="L199" s="6">
-        <v>0.57870370370370372</v>
+        <v>0.5787037037037037</v>
       </c>
       <c r="M199" s="6">
-        <v>0.57870370370370372</v>
+        <v>0.5787037037037037</v>
       </c>
       <c r="N199" s="6"/>
       <c r="O199" s="6">
-        <v>0.46296296296296291</v>
+        <v>0.4629629629629629</v>
       </c>
       <c r="P199" s="6">
-        <v>0.46296296296296291</v>
+        <v>0.4629629629629629</v>
       </c>
       <c r="Q199" s="6"/>
       <c r="R199" s="6">
         <f>K199/J199*100</f>
-        <v>1.0416666666666665</v>
-      </c>
-    </row>
-    <row r="200" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="17.25">
       <c r="A200" s="4" t="s">
         <v>216</v>
       </c>
@@ -8124,7 +7976,7 @@
       <c r="Q200" s="6"/>
       <c r="R200" s="6"/>
     </row>
-    <row r="201" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="17.25">
       <c r="A201" s="4" t="s">
         <v>217</v>
       </c>
@@ -8148,7 +8000,7 @@
       <c r="Q201" s="6"/>
       <c r="R201" s="6"/>
     </row>
-    <row r="202" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="17.25">
       <c r="A202" s="4" t="s">
         <v>218</v>
       </c>
@@ -8177,19 +8029,18 @@
       </c>
       <c r="K202" s="5">
         <f>SUM(C202+D202+F202)</f>
-        <v>84</v>
       </c>
       <c r="L202" s="6">
-        <v>0.58139534883720934</v>
+        <v>0.5813953488372093</v>
       </c>
       <c r="M202" s="6">
         <v>7.170542635658915</v>
       </c>
       <c r="N202" s="6">
-        <v>4.2635658914728678</v>
+        <v>4.263565891472868</v>
       </c>
       <c r="O202" s="6">
-        <v>4.8449612403100781</v>
+        <v>4.844961240310078</v>
       </c>
       <c r="P202" s="6">
         <v>25.38759689922481</v>
@@ -8197,10 +8048,9 @@
       <c r="Q202" s="6"/>
       <c r="R202" s="6">
         <f>K202/J202*100</f>
-        <v>16.279069767441861</v>
-      </c>
-    </row>
-    <row r="203" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="17.25">
       <c r="A203" s="4" t="s">
         <v>219</v>
       </c>
@@ -8224,7 +8074,7 @@
       <c r="Q203" s="6"/>
       <c r="R203" s="6"/>
     </row>
-    <row r="204" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="17.25">
       <c r="A204" s="4" t="s">
         <v>220</v>
       </c>
@@ -8245,10 +8095,9 @@
       </c>
       <c r="K204" s="5">
         <f>SUM(C204+D204+F204)</f>
-        <v>79</v>
       </c>
       <c r="L204" s="6">
-        <v>0.27962250961202367</v>
+        <v>0.2796225096120237</v>
       </c>
       <c r="M204" s="6">
         <v>2.761272282418735</v>
@@ -8259,10 +8108,9 @@
       <c r="Q204" s="6"/>
       <c r="R204" s="6">
         <f>K204/J204*100</f>
-        <v>2.7612722824187346</v>
-      </c>
-    </row>
-    <row r="205" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="17.25">
       <c r="A205" s="4" t="s">
         <v>221</v>
       </c>
@@ -8286,7 +8134,7 @@
       <c r="Q205" s="6"/>
       <c r="R205" s="6"/>
     </row>
-    <row r="206" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="17.25">
       <c r="A206" s="4" t="s">
         <v>222</v>
       </c>
@@ -8310,7 +8158,7 @@
       <c r="Q206" s="6"/>
       <c r="R206" s="6"/>
     </row>
-    <row r="207" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="17.25">
       <c r="A207" s="4" t="s">
         <v>223</v>
       </c>
@@ -8338,31 +8186,29 @@
         <v>8036</v>
       </c>
       <c r="K207" s="5">
-        <f t="shared" ref="K207:K208" si="39">SUM(C207+D207+F207)</f>
-        <v>77</v>
+        <f>SUM(C207+D207+F207)</f>
       </c>
       <c r="L207" s="6">
-        <v>3.733200597312096E-2</v>
+        <v>0.03733200597312096</v>
       </c>
       <c r="M207" s="6">
         <v>0.1368840219014435</v>
       </c>
       <c r="N207" s="6">
-        <v>0.72175211548033846</v>
+        <v>0.7217521154803385</v>
       </c>
       <c r="O207" s="6">
-        <v>9.9552015928322551E-2</v>
+        <v>0.09955201592832255</v>
       </c>
       <c r="P207" s="6">
-        <v>0.28621204579392728</v>
+        <v>0.2862120457939273</v>
       </c>
       <c r="Q207" s="6"/>
       <c r="R207" s="6">
-        <f t="shared" ref="R207:R208" si="40">K207/J207*100</f>
-        <v>0.95818815331010443</v>
-      </c>
-    </row>
-    <row r="208" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f>K207/J207*100</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="17.25">
       <c r="A208" s="4" t="s">
         <v>224</v>
       </c>
@@ -8388,29 +8234,27 @@
         <v>961</v>
       </c>
       <c r="K208" s="5">
-        <f t="shared" si="39"/>
-        <v>61</v>
+        <f>SUM(C208+D208+F208)</f>
       </c>
       <c r="L208" s="6"/>
       <c r="M208" s="6">
-        <v>1.6649323621227889</v>
+        <v>1.664932362122789</v>
       </c>
       <c r="N208" s="6">
         <v>0.1040582726326743</v>
       </c>
       <c r="O208" s="6">
-        <v>4.5785639958376692</v>
+        <v>4.578563995837669</v>
       </c>
       <c r="P208" s="6">
-        <v>10.301768990634759</v>
+        <v>10.30176899063476</v>
       </c>
       <c r="Q208" s="6"/>
       <c r="R208" s="6">
-        <f t="shared" si="40"/>
-        <v>6.3475546305931312</v>
-      </c>
-    </row>
-    <row r="209" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f>K208/J208*100</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="17.25">
       <c r="A209" s="4" t="s">
         <v>225</v>
       </c>
@@ -8434,7 +8278,7 @@
       <c r="Q209" s="6"/>
       <c r="R209" s="6"/>
     </row>
-    <row r="210" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="17.25">
       <c r="A210" s="4" t="s">
         <v>226</v>
       </c>
@@ -8460,7 +8304,7 @@
       <c r="Q210" s="6"/>
       <c r="R210" s="6"/>
     </row>
-    <row r="211" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="17.25">
       <c r="A211" s="4" t="s">
         <v>227</v>
       </c>
@@ -8488,31 +8332,29 @@
         <v>970</v>
       </c>
       <c r="K211" s="5">
-        <f t="shared" ref="K211:K212" si="41">SUM(C211+D211+F211)</f>
-        <v>9</v>
+        <f>SUM(C211+D211+F211)</f>
       </c>
       <c r="L211" s="6">
         <v>0.2061855670103093</v>
       </c>
       <c r="M211" s="6">
-        <v>0.30927835051546387</v>
+        <v>0.3092783505154639</v>
       </c>
       <c r="N211" s="6">
-        <v>0.10309278350515461</v>
+        <v>0.1030927835051546</v>
       </c>
       <c r="O211" s="6">
-        <v>0.51546391752577314</v>
+        <v>0.5154639175257731</v>
       </c>
       <c r="P211" s="6">
-        <v>0.30927835051546387</v>
+        <v>0.3092783505154639</v>
       </c>
       <c r="Q211" s="6"/>
       <c r="R211" s="6">
-        <f t="shared" ref="R211:R212" si="42">K211/J211*100</f>
-        <v>0.92783505154639179</v>
-      </c>
-    </row>
-    <row r="212" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f>K211/J211*100</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="17.25">
       <c r="A212" s="4" t="s">
         <v>228</v>
       </c>
@@ -8538,11 +8380,10 @@
         <v>1565</v>
       </c>
       <c r="K212" s="5">
-        <f t="shared" si="41"/>
-        <v>58</v>
+        <f>SUM(C212+D212+F212)</f>
       </c>
       <c r="L212" s="6">
-        <v>0.25559105431309898</v>
+        <v>0.255591054313099</v>
       </c>
       <c r="M212" s="6">
         <v>1.980830670926518</v>
@@ -8556,11 +8397,10 @@
       </c>
       <c r="Q212" s="6"/>
       <c r="R212" s="6">
-        <f t="shared" si="42"/>
-        <v>3.7060702875399358</v>
-      </c>
-    </row>
-    <row r="213" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f>K212/J212*100</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="17.25">
       <c r="A213" s="4" t="s">
         <v>98</v>
       </c>
@@ -8584,7 +8424,7 @@
       <c r="Q213" s="6"/>
       <c r="R213" s="6"/>
     </row>
-    <row r="214" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="17.25">
       <c r="A214" s="4" t="s">
         <v>229</v>
       </c>
@@ -8610,7 +8450,7 @@
       <c r="Q214" s="6"/>
       <c r="R214" s="6"/>
     </row>
-    <row r="215" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="17.25">
       <c r="A215" s="4" t="s">
         <v>230</v>
       </c>
@@ -8634,7 +8474,7 @@
       <c r="Q215" s="6"/>
       <c r="R215" s="6"/>
     </row>
-    <row r="216" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="17.25">
       <c r="A216" s="4" t="s">
         <v>231</v>
       </c>
@@ -8657,24 +8497,22 @@
       </c>
       <c r="K216" s="5">
         <f>SUM(C216+D216+F216)</f>
-        <v>110</v>
       </c>
       <c r="L216" s="6"/>
       <c r="M216" s="6">
-        <v>0.33086804203970421</v>
+        <v>0.3308680420397042</v>
       </c>
       <c r="N216" s="6">
-        <v>2.5950434669780718E-2</v>
+        <v>0.02595043466978072</v>
       </c>
       <c r="O216" s="6"/>
       <c r="P216" s="6"/>
       <c r="Q216" s="6"/>
       <c r="R216" s="6">
         <f>K216/J216*100</f>
-        <v>0.35681847670948491</v>
-      </c>
-    </row>
-    <row r="217" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="17.25">
       <c r="A217" s="4" t="s">
         <v>232</v>
       </c>
@@ -8698,7 +8536,7 @@
       <c r="Q217" s="6"/>
       <c r="R217" s="6"/>
     </row>
-    <row r="218" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="17.25">
       <c r="A218" s="4" t="s">
         <v>233</v>
       </c>
@@ -8722,7 +8560,7 @@
       <c r="Q218" s="6"/>
       <c r="R218" s="6"/>
     </row>
-    <row r="219" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="17.25">
       <c r="A219" s="4" t="s">
         <v>234</v>
       </c>
@@ -8745,14 +8583,14 @@
       <c r="L219" s="6"/>
       <c r="M219" s="6"/>
       <c r="N219" s="6">
-        <v>0.15873015873015869</v>
+        <v>0.1587301587301587</v>
       </c>
       <c r="O219" s="6"/>
       <c r="P219" s="6"/>
       <c r="Q219" s="6"/>
       <c r="R219" s="6"/>
     </row>
-    <row r="220" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="17.25">
       <c r="A220" s="4" t="s">
         <v>235</v>
       </c>
@@ -8774,25 +8612,23 @@
         <v>5950</v>
       </c>
       <c r="K220" s="5">
-        <f t="shared" ref="K220:K221" si="43">SUM(C220+D220+F220)</f>
-        <v>2</v>
+        <f>SUM(C220+D220+F220)</f>
       </c>
       <c r="L220" s="6"/>
       <c r="M220" s="6">
-        <v>3.3613445378151259E-2</v>
+        <v>0.03361344537815126</v>
       </c>
       <c r="N220" s="6"/>
       <c r="O220" s="6"/>
       <c r="P220" s="6">
-        <v>5.0420168067226892E-2</v>
+        <v>0.05042016806722689</v>
       </c>
       <c r="Q220" s="6"/>
       <c r="R220" s="6">
-        <f t="shared" ref="R220:R221" si="44">K220/J220*100</f>
-        <v>3.3613445378151259E-2</v>
-      </c>
-    </row>
-    <row r="221" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f>K220/J220*100</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="17.25">
       <c r="A221" s="4" t="s">
         <v>236</v>
       </c>
@@ -8816,27 +8652,25 @@
         <v>2384</v>
       </c>
       <c r="K221" s="5">
-        <f t="shared" si="43"/>
-        <v>6</v>
+        <f>SUM(C221+D221+F221)</f>
       </c>
       <c r="L221" s="6"/>
       <c r="M221" s="6">
-        <v>4.1946308724832217E-2</v>
+        <v>0.04194630872483222</v>
       </c>
       <c r="N221" s="6"/>
       <c r="O221" s="6">
         <v>0.2097315436241611</v>
       </c>
       <c r="P221" s="6">
-        <v>0.54530201342281881</v>
+        <v>0.5453020134228188</v>
       </c>
       <c r="Q221" s="6"/>
       <c r="R221" s="6">
-        <f t="shared" si="44"/>
-        <v>0.25167785234899326</v>
-      </c>
-    </row>
-    <row r="222" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f>K221/J221*100</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="17.25">
       <c r="A222" s="4" t="s">
         <v>237</v>
       </c>
@@ -8860,7 +8694,7 @@
       <c r="Q222" s="6"/>
       <c r="R222" s="6"/>
     </row>
-    <row r="223" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="17.25">
       <c r="A223" s="4" t="s">
         <v>238</v>
       </c>
@@ -8891,32 +8725,30 @@
       </c>
       <c r="K223" s="5">
         <f>SUM(C223+D223+F223)</f>
-        <v>44</v>
       </c>
       <c r="L223" s="6">
-        <v>0.54644808743169404</v>
+        <v>0.546448087431694</v>
       </c>
       <c r="M223" s="6">
-        <v>3.6885245901639339</v>
+        <v>3.688524590163934</v>
       </c>
       <c r="N223" s="6">
-        <v>0.13661202185792351</v>
+        <v>0.1366120218579235</v>
       </c>
       <c r="O223" s="6">
-        <v>2.1857923497267762</v>
+        <v>2.185792349726776</v>
       </c>
       <c r="P223" s="6">
-        <v>9.6994535519125673</v>
+        <v>9.699453551912567</v>
       </c>
       <c r="Q223" s="6">
         <v>0.4098360655737705</v>
       </c>
       <c r="R223" s="6">
         <f>K223/J223*100</f>
-        <v>6.0109289617486334</v>
-      </c>
-    </row>
-    <row r="224" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="17.25">
       <c r="A224" s="4" t="s">
         <v>239</v>
       </c>
@@ -8939,14 +8771,14 @@
       <c r="L224" s="6"/>
       <c r="M224" s="6"/>
       <c r="N224" s="6">
-        <v>5.9880239520958077E-2</v>
+        <v>0.05988023952095808</v>
       </c>
       <c r="O224" s="6"/>
       <c r="P224" s="6"/>
       <c r="Q224" s="6"/>
       <c r="R224" s="6"/>
     </row>
-    <row r="225" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="17.25">
       <c r="A225" s="4" t="s">
         <v>240</v>
       </c>
@@ -8969,26 +8801,24 @@
       </c>
       <c r="K225" s="5">
         <f>SUM(C225+D225+F225)</f>
-        <v>6</v>
       </c>
       <c r="L225" s="6"/>
       <c r="M225" s="6">
-        <v>4.918839153959665E-2</v>
+        <v>0.04918839153959665</v>
       </c>
       <c r="N225" s="6">
-        <v>9.83767830791933E-2</v>
+        <v>0.0983767830791933</v>
       </c>
       <c r="O225" s="6"/>
       <c r="P225" s="6">
-        <v>1.1559272011805211</v>
+        <v>1.155927201180521</v>
       </c>
       <c r="Q225" s="6"/>
       <c r="R225" s="6">
         <f>K225/J225*100</f>
-        <v>0.14756517461878996</v>
-      </c>
-    </row>
-    <row r="226" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="17.25">
       <c r="A226" s="4" t="s">
         <v>241</v>
       </c>
@@ -9014,7 +8844,7 @@
       <c r="Q226" s="6"/>
       <c r="R226" s="6"/>
     </row>
-    <row r="227" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="17.25">
       <c r="A227" s="4" t="s">
         <v>242</v>
       </c>
@@ -9038,7 +8868,7 @@
       <c r="Q227" s="6"/>
       <c r="R227" s="6"/>
     </row>
-    <row r="228" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="17.25">
       <c r="A228" s="4" t="s">
         <v>243</v>
       </c>
@@ -9062,7 +8892,7 @@
       <c r="Q228" s="6"/>
       <c r="R228" s="6"/>
     </row>
-    <row r="229" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="17.25">
       <c r="A229" s="4" t="s">
         <v>244</v>
       </c>
@@ -9086,7 +8916,7 @@
       <c r="Q229" s="6"/>
       <c r="R229" s="6"/>
     </row>
-    <row r="230" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="17.25">
       <c r="A230" s="4" t="s">
         <v>245</v>
       </c>
@@ -9112,7 +8942,7 @@
       <c r="Q230" s="6"/>
       <c r="R230" s="6"/>
     </row>
-    <row r="231" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="17.25">
       <c r="A231" s="4" t="s">
         <v>98</v>
       </c>
@@ -9138,7 +8968,7 @@
       <c r="Q231" s="6"/>
       <c r="R231" s="6"/>
     </row>
-    <row r="232" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="17.25">
       <c r="A232" s="4" t="s">
         <v>246</v>
       </c>
@@ -9162,7 +8992,7 @@
       <c r="Q232" s="6"/>
       <c r="R232" s="6"/>
     </row>
-    <row r="233" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="17.25">
       <c r="A233" s="4" t="s">
         <v>247</v>
       </c>
@@ -9187,28 +9017,26 @@
       </c>
       <c r="K233" s="5">
         <f>SUM(C233+D233+F233)</f>
-        <v>17</v>
       </c>
       <c r="L233" s="6"/>
       <c r="M233" s="6">
-        <v>1.9258545979778531E-2</v>
+        <v>0.01925854597977853</v>
       </c>
       <c r="N233" s="6">
         <v>0.1059220028887819</v>
       </c>
       <c r="O233" s="6">
-        <v>3.8517091959557062E-2</v>
+        <v>0.03851709195955706</v>
       </c>
       <c r="P233" s="6">
-        <v>0.15406836783822819</v>
+        <v>0.1540683678382282</v>
       </c>
       <c r="Q233" s="6"/>
       <c r="R233" s="6">
         <f>K233/J233*100</f>
-        <v>0.16369764082811747</v>
-      </c>
-    </row>
-    <row r="234" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="17.25">
       <c r="A234" s="4" t="s">
         <v>248</v>
       </c>
@@ -9229,14 +9057,14 @@
       <c r="L234" s="6"/>
       <c r="M234" s="6"/>
       <c r="N234" s="6">
-        <v>3.2669062397909177E-2</v>
+        <v>0.03266906239790918</v>
       </c>
       <c r="O234" s="6"/>
       <c r="P234" s="6"/>
       <c r="Q234" s="6"/>
       <c r="R234" s="6"/>
     </row>
-    <row r="235" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="17.25">
       <c r="A235" s="4" t="s">
         <v>249</v>
       </c>
@@ -9260,7 +9088,7 @@
       <c r="Q235" s="6"/>
       <c r="R235" s="6"/>
     </row>
-    <row r="236" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="17.25">
       <c r="A236" s="4" t="s">
         <v>250</v>
       </c>
@@ -9283,14 +9111,14 @@
       <c r="L236" s="6"/>
       <c r="M236" s="6"/>
       <c r="N236" s="6">
-        <v>0.28205684530266872</v>
+        <v>0.2820568453026687</v>
       </c>
       <c r="O236" s="6"/>
       <c r="P236" s="6"/>
       <c r="Q236" s="6"/>
       <c r="R236" s="6"/>
     </row>
-    <row r="237" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="17.25">
       <c r="A237" s="4" t="s">
         <v>251</v>
       </c>
@@ -9314,7 +9142,7 @@
       <c r="Q237" s="6"/>
       <c r="R237" s="6"/>
     </row>
-    <row r="238" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="17.25">
       <c r="A238" s="4" t="s">
         <v>252</v>
       </c>
@@ -9338,7 +9166,7 @@
       <c r="Q238" s="6"/>
       <c r="R238" s="6"/>
     </row>
-    <row r="239" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="17.25">
       <c r="A239" s="4" t="s">
         <v>253</v>
       </c>
@@ -9364,7 +9192,7 @@
       <c r="Q239" s="6"/>
       <c r="R239" s="6"/>
     </row>
-    <row r="240" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="17.25">
       <c r="A240" s="4" t="s">
         <v>254</v>
       </c>
@@ -9387,14 +9215,13 @@
       </c>
       <c r="K240" s="5">
         <f>SUM(C240+D240+F240)</f>
-        <v>15</v>
       </c>
       <c r="L240" s="6"/>
       <c r="M240" s="6">
-        <v>0.12285012285012289</v>
+        <v>0.1228501228501229</v>
       </c>
       <c r="N240" s="6">
-        <v>1.7199017199017199</v>
+        <v>1.71990171990172</v>
       </c>
       <c r="O240" s="6"/>
       <c r="P240" s="6">
@@ -9403,10 +9230,9 @@
       <c r="Q240" s="6"/>
       <c r="R240" s="6">
         <f>K240/J240*100</f>
-        <v>1.8427518427518428</v>
-      </c>
-    </row>
-    <row r="241" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="17.25">
       <c r="A241" s="4" t="s">
         <v>255</v>
       </c>
@@ -9429,14 +9255,14 @@
       <c r="L241" s="6"/>
       <c r="M241" s="6"/>
       <c r="N241" s="6">
-        <v>9.9009900990099015E-2</v>
+        <v>0.09900990099009901</v>
       </c>
       <c r="O241" s="6"/>
       <c r="P241" s="6"/>
       <c r="Q241" s="6"/>
       <c r="R241" s="6"/>
     </row>
-    <row r="242" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="17.25">
       <c r="A242" s="4" t="s">
         <v>256</v>
       </c>
@@ -9460,7 +9286,7 @@
       <c r="Q242" s="6"/>
       <c r="R242" s="6"/>
     </row>
-    <row r="243" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="17.25">
       <c r="A243" s="4" t="s">
         <v>257</v>
       </c>
@@ -9481,14 +9307,14 @@
       <c r="L243" s="6"/>
       <c r="M243" s="6"/>
       <c r="N243" s="6">
-        <v>0.34682080924855491</v>
+        <v>0.3468208092485549</v>
       </c>
       <c r="O243" s="6"/>
       <c r="P243" s="6"/>
       <c r="Q243" s="6"/>
       <c r="R243" s="6"/>
     </row>
-    <row r="244" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="17.25">
       <c r="A244" s="4" t="s">
         <v>258</v>
       </c>
@@ -9514,7 +9340,7 @@
       <c r="Q244" s="6"/>
       <c r="R244" s="6"/>
     </row>
-    <row r="245" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="17.25">
       <c r="A245" s="4" t="s">
         <v>259</v>
       </c>
@@ -9538,7 +9364,7 @@
       <c r="Q245" s="6"/>
       <c r="R245" s="6"/>
     </row>
-    <row r="246" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="17.25">
       <c r="A246" s="4" t="s">
         <v>260</v>
       </c>
@@ -9562,7 +9388,7 @@
       <c r="Q246" s="6"/>
       <c r="R246" s="6"/>
     </row>
-    <row r="247" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="17.25">
       <c r="A247" s="4" t="s">
         <v>261</v>
       </c>
@@ -9586,7 +9412,7 @@
       <c r="Q247" s="6"/>
       <c r="R247" s="6"/>
     </row>
-    <row r="248" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="17.25">
       <c r="A248" s="4" t="s">
         <v>262</v>
       </c>
@@ -9610,7 +9436,7 @@
       <c r="Q248" s="6"/>
       <c r="R248" s="6"/>
     </row>
-    <row r="249" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="17.25">
       <c r="A249" s="4" t="s">
         <v>263</v>
       </c>
@@ -9636,7 +9462,7 @@
       <c r="Q249" s="6"/>
       <c r="R249" s="6"/>
     </row>
-    <row r="250" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="17.25">
       <c r="A250" s="4" t="s">
         <v>264</v>
       </c>
@@ -9658,27 +9484,25 @@
         <v>317</v>
       </c>
       <c r="K250" s="5">
-        <f t="shared" ref="K250:K251" si="45">SUM(C250+D250+F250)</f>
-        <v>2</v>
+        <f>SUM(C250+D250+F250)</f>
       </c>
       <c r="L250" s="6"/>
       <c r="M250" s="6">
-        <v>0.31545741324921128</v>
+        <v>0.3154574132492113</v>
       </c>
       <c r="N250" s="6"/>
       <c r="O250" s="6">
-        <v>0.31545741324921128</v>
+        <v>0.3154574132492113</v>
       </c>
       <c r="P250" s="6">
-        <v>0.63091482649842268</v>
+        <v>0.6309148264984227</v>
       </c>
       <c r="Q250" s="6"/>
       <c r="R250" s="6">
-        <f t="shared" ref="R250:R251" si="46">K250/J250*100</f>
-        <v>0.63091482649842268</v>
-      </c>
-    </row>
-    <row r="251" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f>K250/J250*100</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="17.25">
       <c r="A251" s="4" t="s">
         <v>265</v>
       </c>
@@ -9706,8 +9530,7 @@
         <v>2034</v>
       </c>
       <c r="K251" s="5">
-        <f t="shared" si="45"/>
-        <v>111</v>
+        <f>SUM(C251+D251+F251)</f>
       </c>
       <c r="L251" s="6">
         <v>1.474926253687316</v>
@@ -9716,21 +9539,20 @@
         <v>3.785644051130777</v>
       </c>
       <c r="N251" s="6">
-        <v>0.68829891838741397</v>
+        <v>0.688298918387414</v>
       </c>
       <c r="O251" s="6">
-        <v>0.98328416912487704</v>
+        <v>0.983284169124877</v>
       </c>
       <c r="P251" s="6">
-        <v>4.0314650934119962</v>
+        <v>4.031465093411996</v>
       </c>
       <c r="Q251" s="6"/>
       <c r="R251" s="6">
-        <f t="shared" si="46"/>
-        <v>5.4572271386430682</v>
-      </c>
-    </row>
-    <row r="252" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f>K251/J251*100</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="17.25">
       <c r="A252" s="4" t="s">
         <v>266</v>
       </c>
@@ -9754,7 +9576,7 @@
       <c r="Q252" s="6"/>
       <c r="R252" s="6"/>
     </row>
-    <row r="253" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="17.25">
       <c r="A253" s="4" t="s">
         <v>267</v>
       </c>
@@ -9778,7 +9600,7 @@
       <c r="Q253" s="6"/>
       <c r="R253" s="6"/>
     </row>
-    <row r="254" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="17.25">
       <c r="A254" s="4" t="s">
         <v>268</v>
       </c>
@@ -9802,7 +9624,7 @@
       <c r="Q254" s="6"/>
       <c r="R254" s="6"/>
     </row>
-    <row r="255" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="17.25">
       <c r="A255" s="4" t="s">
         <v>269</v>
       </c>
@@ -9825,14 +9647,14 @@
       <c r="L255" s="6"/>
       <c r="M255" s="6"/>
       <c r="N255" s="6">
-        <v>1.322751322751323E-2</v>
+        <v>0.01322751322751323</v>
       </c>
       <c r="O255" s="6"/>
       <c r="P255" s="6"/>
       <c r="Q255" s="6"/>
       <c r="R255" s="6"/>
     </row>
-    <row r="256" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="17.25">
       <c r="A256" s="4" t="s">
         <v>270</v>
       </c>
@@ -9855,26 +9677,24 @@
       </c>
       <c r="K256" s="5">
         <f>SUM(C256+D256+F256)</f>
-        <v>3</v>
       </c>
       <c r="L256" s="6"/>
       <c r="M256" s="6">
-        <v>7.7220077220077218E-2</v>
+        <v>0.07722007722007722</v>
       </c>
       <c r="N256" s="6"/>
       <c r="O256" s="6">
-        <v>3.8610038610038609E-2</v>
+        <v>0.03861003861003861</v>
       </c>
       <c r="P256" s="6">
-        <v>3.8610038610038609E-2</v>
+        <v>0.03861003861003861</v>
       </c>
       <c r="Q256" s="6"/>
       <c r="R256" s="6">
         <f>K256/J256*100</f>
-        <v>0.11583011583011582</v>
-      </c>
-    </row>
-    <row r="257" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="17.25">
       <c r="A257" s="4" t="s">
         <v>271</v>
       </c>
@@ -9898,7 +9718,7 @@
       <c r="Q257" s="6"/>
       <c r="R257" s="6"/>
     </row>
-    <row r="258" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="17.25">
       <c r="A258" s="4" t="s">
         <v>272</v>
       </c>
@@ -9923,26 +9743,24 @@
       </c>
       <c r="K258" s="5">
         <f>SUM(C258+D258+F258)</f>
-        <v>5</v>
       </c>
       <c r="L258" s="6"/>
       <c r="M258" s="6">
-        <v>8.0938891137191424E-2</v>
+        <v>0.08093889113719142</v>
       </c>
       <c r="N258" s="6">
         <v>0.1214083367057871</v>
       </c>
       <c r="O258" s="6"/>
       <c r="P258" s="6">
-        <v>0.28328611898016998</v>
+        <v>0.28328611898017</v>
       </c>
       <c r="Q258" s="6"/>
       <c r="R258" s="6">
         <f>K258/J258*100</f>
-        <v>0.20234722784297854</v>
-      </c>
-    </row>
-    <row r="259" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="17.25">
       <c r="A259" s="4" t="s">
         <v>273</v>
       </c>
@@ -9966,7 +9784,7 @@
       <c r="Q259" s="6"/>
       <c r="R259" s="6"/>
     </row>
-    <row r="260" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="17.25">
       <c r="A260" s="4" t="s">
         <v>274</v>
       </c>
@@ -9992,7 +9810,7 @@
       <c r="Q260" s="6"/>
       <c r="R260" s="6"/>
     </row>
-    <row r="261" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="17.25">
       <c r="A261" s="4" t="s">
         <v>275</v>
       </c>
@@ -10016,7 +9834,7 @@
       <c r="Q261" s="6"/>
       <c r="R261" s="6"/>
     </row>
-    <row r="262" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="17.25">
       <c r="A262" s="4" t="s">
         <v>276</v>
       </c>
@@ -10040,7 +9858,7 @@
       <c r="Q262" s="6"/>
       <c r="R262" s="6"/>
     </row>
-    <row r="263" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="17.25">
       <c r="A263" s="4" t="s">
         <v>277</v>
       </c>
@@ -10064,27 +9882,25 @@
         <v>10909</v>
       </c>
       <c r="K263" s="5">
-        <f t="shared" ref="K263:K264" si="47">SUM(C263+D263+F263)</f>
-        <v>19</v>
+        <f>SUM(C263+D263+F263)</f>
       </c>
       <c r="L263" s="6"/>
       <c r="M263" s="6">
-        <v>9.1667430561921358E-3</v>
+        <v>0.009166743056192136</v>
       </c>
       <c r="N263" s="6">
         <v>0.1650013750114584</v>
       </c>
       <c r="O263" s="6"/>
       <c r="P263" s="6">
-        <v>5.5000458337152808E-2</v>
+        <v>0.05500045833715281</v>
       </c>
       <c r="Q263" s="6"/>
       <c r="R263" s="6">
-        <f t="shared" ref="R263:R264" si="48">K263/J263*100</f>
-        <v>0.17416811806765056</v>
-      </c>
-    </row>
-    <row r="264" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f>K263/J263*100</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="17.25">
       <c r="A264" s="4" t="s">
         <v>278</v>
       </c>
@@ -10114,33 +9930,31 @@
         <v>11234</v>
       </c>
       <c r="K264" s="5">
-        <f t="shared" si="47"/>
-        <v>439</v>
+        <f>SUM(C264+D264+F264)</f>
       </c>
       <c r="L264" s="6">
-        <v>0.10681858643403951</v>
+        <v>0.1068185864340395</v>
       </c>
       <c r="M264" s="6">
-        <v>0.77443475164678655</v>
+        <v>0.7744347516467865</v>
       </c>
       <c r="N264" s="6">
-        <v>0.59640377425672064</v>
+        <v>0.5964037742567206</v>
       </c>
       <c r="O264" s="6">
         <v>2.536941427808439</v>
       </c>
       <c r="P264" s="6">
-        <v>5.5011572013530348</v>
+        <v>5.501157201353035</v>
       </c>
       <c r="Q264" s="6">
-        <v>2.670464660850988E-2</v>
+        <v>0.02670464660850988</v>
       </c>
       <c r="R264" s="6">
-        <f t="shared" si="48"/>
-        <v>3.9077799537119455</v>
-      </c>
-    </row>
-    <row r="265" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f>K264/J264*100</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="17.25">
       <c r="A265" s="4" t="s">
         <v>279</v>
       </c>
@@ -10166,7 +9980,7 @@
       <c r="Q265" s="6"/>
       <c r="R265" s="6"/>
     </row>
-    <row r="266" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="17.25">
       <c r="A266" s="4" t="s">
         <v>280</v>
       </c>
@@ -10189,15 +10003,14 @@
       </c>
       <c r="K266" s="5">
         <f>SUM(C266+D266+F266)</f>
-        <v>4</v>
       </c>
       <c r="L266" s="6"/>
       <c r="M266" s="6">
-        <v>8.9632506722437999E-2</v>
+        <v>0.089632506722438</v>
       </c>
       <c r="N266" s="6"/>
       <c r="O266" s="6">
-        <v>2.9877502240812669E-2</v>
+        <v>0.02987750224081267</v>
       </c>
       <c r="P266" s="6">
         <v>0.1195100089632507</v>
@@ -10205,10 +10018,9 @@
       <c r="Q266" s="6"/>
       <c r="R266" s="6">
         <f>K266/J266*100</f>
-        <v>0.11951000896325066</v>
-      </c>
-    </row>
-    <row r="267" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="17.25">
       <c r="A267" s="4" t="s">
         <v>281</v>
       </c>
@@ -10234,7 +10046,7 @@
       <c r="Q267" s="6"/>
       <c r="R267" s="6"/>
     </row>
-    <row r="268" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="17.25">
       <c r="A268" s="4" t="s">
         <v>282</v>
       </c>
@@ -10258,7 +10070,7 @@
       <c r="Q268" s="6"/>
       <c r="R268" s="6"/>
     </row>
-    <row r="269" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="17.25">
       <c r="A269" s="4" t="s">
         <v>283</v>
       </c>
@@ -10282,7 +10094,7 @@
       <c r="Q269" s="6"/>
       <c r="R269" s="6"/>
     </row>
-    <row r="270" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="17.25">
       <c r="A270" s="4" t="s">
         <v>284</v>
       </c>
@@ -10306,15 +10118,14 @@
         <v>3245</v>
       </c>
       <c r="K270" s="5">
-        <f t="shared" ref="K270:K273" si="49">SUM(C270+D270+F270)</f>
-        <v>21</v>
+        <f>SUM(C270+D270+F270)</f>
       </c>
       <c r="L270" s="6"/>
       <c r="M270" s="6">
-        <v>0.30816640986132521</v>
+        <v>0.3081664098613252</v>
       </c>
       <c r="N270" s="6">
-        <v>0.33898305084745761</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="O270" s="6"/>
       <c r="P270" s="6">
@@ -10322,11 +10133,10 @@
       </c>
       <c r="Q270" s="6"/>
       <c r="R270" s="6">
-        <f t="shared" ref="R270:R273" si="50">K270/J270*100</f>
-        <v>0.64714946070878276</v>
-      </c>
-    </row>
-    <row r="271" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f>K270/J270*100</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="17.25">
       <c r="A271" s="4" t="s">
         <v>285</v>
       </c>
@@ -10348,27 +10158,25 @@
         <v>616</v>
       </c>
       <c r="K271" s="5">
-        <f t="shared" si="49"/>
-        <v>2</v>
+        <f>SUM(C271+D271+F271)</f>
       </c>
       <c r="L271" s="6"/>
       <c r="M271" s="6">
-        <v>0.16233766233766231</v>
+        <v>0.1623376623376623</v>
       </c>
       <c r="N271" s="6"/>
       <c r="O271" s="6">
-        <v>0.16233766233766231</v>
+        <v>0.1623376623376623</v>
       </c>
       <c r="P271" s="6">
-        <v>0.64935064935064934</v>
+        <v>0.6493506493506493</v>
       </c>
       <c r="Q271" s="6"/>
       <c r="R271" s="6">
-        <f t="shared" si="50"/>
-        <v>0.32467532467532467</v>
-      </c>
-    </row>
-    <row r="272" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f>K271/J271*100</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="17.25">
       <c r="A272" s="4" t="s">
         <v>286</v>
       </c>
@@ -10388,25 +10196,23 @@
         <v>194</v>
       </c>
       <c r="K272" s="5">
-        <f t="shared" si="49"/>
-        <v>3</v>
+        <f>SUM(C272+D272+F272)</f>
       </c>
       <c r="L272" s="6">
-        <v>0.51546391752577314</v>
+        <v>0.5154639175257731</v>
       </c>
       <c r="M272" s="6"/>
       <c r="N272" s="6"/>
       <c r="O272" s="6">
-        <v>1.5463917525773201</v>
+        <v>1.54639175257732</v>
       </c>
       <c r="P272" s="6"/>
       <c r="Q272" s="6"/>
       <c r="R272" s="6">
-        <f t="shared" si="50"/>
-        <v>1.5463917525773196</v>
-      </c>
-    </row>
-    <row r="273" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f>K272/J272*100</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="17.25">
       <c r="A273" s="4" t="s">
         <v>287</v>
       </c>
@@ -10430,29 +10236,27 @@
         <v>437</v>
       </c>
       <c r="K273" s="5">
-        <f t="shared" si="49"/>
-        <v>3</v>
+        <f>SUM(C273+D273+F273)</f>
       </c>
       <c r="L273" s="6">
-        <v>0.45766590389016021</v>
+        <v>0.4576659038901602</v>
       </c>
       <c r="M273" s="6">
         <v>0.2288329519450801</v>
       </c>
       <c r="N273" s="6"/>
       <c r="O273" s="6">
-        <v>0.45766590389016021</v>
+        <v>0.4576659038901602</v>
       </c>
       <c r="P273" s="6">
-        <v>0.68649885583524028</v>
+        <v>0.6864988558352403</v>
       </c>
       <c r="Q273" s="6"/>
       <c r="R273" s="6">
-        <f t="shared" si="50"/>
-        <v>0.68649885583524028</v>
-      </c>
-    </row>
-    <row r="274" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f>K273/J273*100</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="17.25">
       <c r="A274" s="4" t="s">
         <v>288</v>
       </c>
@@ -10476,7 +10280,7 @@
       <c r="Q274" s="6"/>
       <c r="R274" s="6"/>
     </row>
-    <row r="275" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="17.25">
       <c r="A275" s="4" t="s">
         <v>289</v>
       </c>
@@ -10502,31 +10306,29 @@
         <v>1013</v>
       </c>
       <c r="K275" s="5">
-        <f t="shared" ref="K275:K276" si="51">SUM(C275+D275+F275)</f>
-        <v>12</v>
+        <f>SUM(C275+D275+F275)</f>
       </c>
       <c r="L275" s="6">
         <v>0.4935834155972359</v>
       </c>
       <c r="M275" s="6">
-        <v>0.29615004935834149</v>
+        <v>0.2961500493583415</v>
       </c>
       <c r="N275" s="6">
-        <v>0.19743336623889429</v>
+        <v>0.1974333662388943</v>
       </c>
       <c r="O275" s="6">
-        <v>0.69101678183613036</v>
+        <v>0.6910167818361304</v>
       </c>
       <c r="P275" s="6">
-        <v>0.29615004935834149</v>
+        <v>0.2961500493583415</v>
       </c>
       <c r="Q275" s="6"/>
       <c r="R275" s="6">
-        <f t="shared" ref="R275:R276" si="52">K275/J275*100</f>
-        <v>1.1846001974333662</v>
-      </c>
-    </row>
-    <row r="276" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f>K275/J275*100</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="17.25">
       <c r="A276" s="4" t="s">
         <v>290</v>
       </c>
@@ -10548,25 +10350,23 @@
         <v>570</v>
       </c>
       <c r="K276" s="5">
-        <f t="shared" si="51"/>
-        <v>1</v>
+        <f>SUM(C276+D276+F276)</f>
       </c>
       <c r="L276" s="6"/>
       <c r="M276" s="6">
-        <v>0.17543859649122809</v>
+        <v>0.1754385964912281</v>
       </c>
       <c r="N276" s="6"/>
       <c r="O276" s="6"/>
       <c r="P276" s="6">
-        <v>0.17543859649122809</v>
+        <v>0.1754385964912281</v>
       </c>
       <c r="Q276" s="6"/>
       <c r="R276" s="6">
-        <f t="shared" si="52"/>
-        <v>0.17543859649122806</v>
-      </c>
-    </row>
-    <row r="277" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f>K276/J276*100</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="17.25">
       <c r="A277" s="4" t="s">
         <v>291</v>
       </c>
@@ -10590,7 +10390,7 @@
       <c r="Q277" s="6"/>
       <c r="R277" s="6"/>
     </row>
-    <row r="278" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="17.25">
       <c r="A278" s="4" t="s">
         <v>292</v>
       </c>
@@ -10614,7 +10414,7 @@
       <c r="Q278" s="6"/>
       <c r="R278" s="6"/>
     </row>
-    <row r="279" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="17.25">
       <c r="A279" s="4" t="s">
         <v>293</v>
       </c>
@@ -10641,19 +10441,18 @@
       </c>
       <c r="K279" s="5">
         <f>SUM(C279+D279+F279)</f>
-        <v>102</v>
       </c>
       <c r="L279" s="6">
-        <v>2.8322440087145968</v>
+        <v>2.832244008714597</v>
       </c>
       <c r="M279" s="6">
-        <v>8.0610021786492378</v>
+        <v>8.061002178649238</v>
       </c>
       <c r="N279" s="6">
         <v>0.8714596949891068</v>
       </c>
       <c r="O279" s="6">
-        <v>13.289760348583879</v>
+        <v>13.28976034858388</v>
       </c>
       <c r="P279" s="6">
         <v>14.59694989106754</v>
@@ -10661,10 +10460,9 @@
       <c r="Q279" s="6"/>
       <c r="R279" s="6">
         <f>K279/J279*100</f>
-        <v>22.222222222222221</v>
-      </c>
-    </row>
-    <row r="280" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="17.25">
       <c r="A280" s="4" t="s">
         <v>294</v>
       </c>
@@ -10690,7 +10488,7 @@
       <c r="Q280" s="6"/>
       <c r="R280" s="6"/>
     </row>
-    <row r="281" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="17.25">
       <c r="A281" s="4" t="s">
         <v>295</v>
       </c>
@@ -10714,7 +10512,7 @@
       <c r="Q281" s="6"/>
       <c r="R281" s="6"/>
     </row>
-    <row r="282" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="282" customHeight="1" ht="17.25">
       <c r="A282" s="4" t="s">
         <v>296</v>
       </c>
@@ -10738,7 +10536,7 @@
       <c r="Q282" s="6"/>
       <c r="R282" s="6"/>
     </row>
-    <row r="283" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="17.25">
       <c r="A283" s="4" t="s">
         <v>297</v>
       </c>
@@ -10762,7 +10560,7 @@
       <c r="Q283" s="6"/>
       <c r="R283" s="6"/>
     </row>
-    <row r="284" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="284" customHeight="1" ht="17.25">
       <c r="A284" s="4" t="s">
         <v>298</v>
       </c>
@@ -10786,7 +10584,7 @@
       <c r="Q284" s="6"/>
       <c r="R284" s="6"/>
     </row>
-    <row r="285" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="285" customHeight="1" ht="17.25">
       <c r="A285" s="4" t="s">
         <v>299</v>
       </c>
@@ -10810,7 +10608,7 @@
       <c r="Q285" s="6"/>
       <c r="R285" s="6"/>
     </row>
-    <row r="286" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="286" customHeight="1" ht="17.25">
       <c r="A286" s="4" t="s">
         <v>300</v>
       </c>
@@ -10834,12 +10632,11 @@
         <v>1011</v>
       </c>
       <c r="K286" s="5">
-        <f t="shared" ref="K286:K289" si="53">SUM(C286+D286+F286)</f>
-        <v>22</v>
+        <f>SUM(C286+D286+F286)</f>
       </c>
       <c r="L286" s="6"/>
       <c r="M286" s="6">
-        <v>2.1760633036597432</v>
+        <v>2.176063303659743</v>
       </c>
       <c r="N286" s="6"/>
       <c r="O286" s="6"/>
@@ -10850,11 +10647,10 @@
         <v>0.4945598417408506</v>
       </c>
       <c r="R286" s="6">
-        <f t="shared" ref="R286:R289" si="54">K286/J286*100</f>
-        <v>2.1760633036597428</v>
-      </c>
-    </row>
-    <row r="287" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f>K286/J286*100</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="287" customHeight="1" ht="17.25">
       <c r="A287" s="4" t="s">
         <v>301</v>
       </c>
@@ -10882,31 +10678,29 @@
         <v>2212</v>
       </c>
       <c r="K287" s="5">
-        <f t="shared" si="53"/>
-        <v>35</v>
+        <f>SUM(C287+D287+F287)</f>
       </c>
       <c r="L287" s="6">
-        <v>4.5207956600361657E-2</v>
+        <v>0.04520795660036166</v>
       </c>
       <c r="M287" s="6">
-        <v>0.45207956600361671</v>
+        <v>0.4520795660036167</v>
       </c>
       <c r="N287" s="6">
-        <v>4.5207956600361657E-2</v>
+        <v>0.04520795660036166</v>
       </c>
       <c r="O287" s="6">
-        <v>1.0849909584086801</v>
+        <v>1.08499095840868</v>
       </c>
       <c r="P287" s="6">
-        <v>3.1193490054249549</v>
+        <v>3.119349005424955</v>
       </c>
       <c r="Q287" s="6"/>
       <c r="R287" s="6">
-        <f t="shared" si="54"/>
-        <v>1.5822784810126582</v>
-      </c>
-    </row>
-    <row r="288" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f>K287/J287*100</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="288" customHeight="1" ht="17.25">
       <c r="A288" s="4" t="s">
         <v>302</v>
       </c>
@@ -10928,25 +10722,23 @@
         <v>3778</v>
       </c>
       <c r="K288" s="5">
-        <f t="shared" si="53"/>
-        <v>372</v>
+        <f>SUM(C288+D288+F288)</f>
       </c>
       <c r="L288" s="6"/>
       <c r="M288" s="6">
-        <v>9.7670725251455792</v>
+        <v>9.76707252514558</v>
       </c>
       <c r="N288" s="6">
-        <v>7.9407093700370565E-2</v>
+        <v>0.07940709370037057</v>
       </c>
       <c r="O288" s="6"/>
       <c r="P288" s="6"/>
       <c r="Q288" s="6"/>
       <c r="R288" s="6">
-        <f t="shared" si="54"/>
-        <v>9.8464796188459509</v>
-      </c>
-    </row>
-    <row r="289" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f>K288/J288*100</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="289" customHeight="1" ht="17.25">
       <c r="A289" s="4" t="s">
         <v>303</v>
       </c>
@@ -10974,31 +10766,29 @@
         <v>3877</v>
       </c>
       <c r="K289" s="5">
-        <f t="shared" si="53"/>
-        <v>148</v>
+        <f>SUM(C289+D289+F289)</f>
       </c>
       <c r="L289" s="6">
-        <v>2.5793139025019351E-2</v>
+        <v>0.02579313902501935</v>
       </c>
       <c r="M289" s="6">
-        <v>3.3531080732525149</v>
+        <v>3.353108073252515</v>
       </c>
       <c r="N289" s="6">
         <v>0.1031725561000774</v>
       </c>
       <c r="O289" s="6">
-        <v>0.36110394635027082</v>
+        <v>0.3611039463502708</v>
       </c>
       <c r="P289" s="6">
-        <v>5.4681454733041024</v>
+        <v>5.468145473304102</v>
       </c>
       <c r="Q289" s="6"/>
       <c r="R289" s="6">
-        <f t="shared" si="54"/>
-        <v>3.8173845757028633</v>
-      </c>
-    </row>
-    <row r="290" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f>K289/J289*100</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="290" customHeight="1" ht="17.25">
       <c r="A290" s="4" t="s">
         <v>304</v>
       </c>
@@ -11022,7 +10812,7 @@
       <c r="Q290" s="6"/>
       <c r="R290" s="6"/>
     </row>
-    <row r="291" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="291" customHeight="1" ht="17.25">
       <c r="A291" s="4" t="s">
         <v>305</v>
       </c>
@@ -11046,7 +10836,7 @@
       <c r="Q291" s="6"/>
       <c r="R291" s="6"/>
     </row>
-    <row r="292" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="292" customHeight="1" ht="17.25">
       <c r="A292" s="4" t="s">
         <v>306</v>
       </c>
@@ -11072,7 +10862,7 @@
       <c r="Q292" s="6"/>
       <c r="R292" s="6"/>
     </row>
-    <row r="293" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="293" customHeight="1" ht="17.25">
       <c r="A293" s="4" t="s">
         <v>307</v>
       </c>
@@ -11096,7 +10886,7 @@
       <c r="Q293" s="6"/>
       <c r="R293" s="6"/>
     </row>
-    <row r="294" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="294" customHeight="1" ht="17.25">
       <c r="A294" s="4" t="s">
         <v>308</v>
       </c>
@@ -11117,14 +10907,14 @@
       <c r="L294" s="6"/>
       <c r="M294" s="6"/>
       <c r="N294" s="6">
-        <v>0.54773082942097029</v>
+        <v>0.5477308294209703</v>
       </c>
       <c r="O294" s="6"/>
       <c r="P294" s="6"/>
       <c r="Q294" s="6"/>
       <c r="R294" s="6"/>
     </row>
-    <row r="295" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="295" customHeight="1" ht="17.25">
       <c r="A295" s="4" t="s">
         <v>309</v>
       </c>
@@ -11145,14 +10935,14 @@
       <c r="L295" s="6"/>
       <c r="M295" s="6"/>
       <c r="N295" s="6">
-        <v>3.4340659340659337E-2</v>
+        <v>0.03434065934065934</v>
       </c>
       <c r="O295" s="6"/>
       <c r="P295" s="6"/>
       <c r="Q295" s="6"/>
       <c r="R295" s="6"/>
     </row>
-    <row r="296" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="296" customHeight="1" ht="17.25">
       <c r="A296" s="4" t="s">
         <v>310</v>
       </c>
@@ -11176,7 +10966,7 @@
       <c r="Q296" s="6"/>
       <c r="R296" s="6"/>
     </row>
-    <row r="297" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="297" customHeight="1" ht="17.25">
       <c r="A297" s="4" t="s">
         <v>311</v>
       </c>
@@ -11200,7 +10990,7 @@
       <c r="Q297" s="6"/>
       <c r="R297" s="6"/>
     </row>
-    <row r="298" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="298" customHeight="1" ht="17.25">
       <c r="A298" s="4" t="s">
         <v>312</v>
       </c>
@@ -11224,7 +11014,7 @@
       <c r="Q298" s="6"/>
       <c r="R298" s="6"/>
     </row>
-    <row r="299" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="299" customHeight="1" ht="17.25">
       <c r="A299" s="4" t="s">
         <v>313</v>
       </c>
@@ -11248,7 +11038,7 @@
       <c r="Q299" s="6"/>
       <c r="R299" s="6"/>
     </row>
-    <row r="300" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="300" customHeight="1" ht="17.25">
       <c r="A300" s="4" t="s">
         <v>314</v>
       </c>
@@ -11274,7 +11064,7 @@
       <c r="Q300" s="6"/>
       <c r="R300" s="6"/>
     </row>
-    <row r="301" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="301" customHeight="1" ht="17.25">
       <c r="A301" s="4" t="s">
         <v>315</v>
       </c>
@@ -11298,8 +11088,7 @@
         <v>717</v>
       </c>
       <c r="K301" s="5">
-        <f t="shared" ref="K301:K304" si="55">SUM(C301+D301+F301)</f>
-        <v>9</v>
+        <f>SUM(C301+D301+F301)</f>
       </c>
       <c r="L301" s="6"/>
       <c r="M301" s="6">
@@ -11314,11 +11103,10 @@
       </c>
       <c r="Q301" s="6"/>
       <c r="R301" s="6">
-        <f t="shared" ref="R301:R304" si="56">K301/J301*100</f>
-        <v>1.2552301255230125</v>
-      </c>
-    </row>
-    <row r="302" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f>K301/J301*100</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="302" customHeight="1" ht="17.25">
       <c r="A302" s="4" t="s">
         <v>316</v>
       </c>
@@ -11344,29 +11132,27 @@
         <v>3963</v>
       </c>
       <c r="K302" s="5">
-        <f t="shared" si="55"/>
-        <v>141</v>
+        <f>SUM(C302+D302+F302)</f>
       </c>
       <c r="L302" s="6"/>
       <c r="M302" s="6">
-        <v>3.1794095382286152</v>
+        <v>3.179409538228615</v>
       </c>
       <c r="N302" s="6">
-        <v>0.10093363613424169</v>
+        <v>0.1009336361342417</v>
       </c>
       <c r="O302" s="6">
-        <v>0.27756749936916469</v>
+        <v>0.2775674993691647</v>
       </c>
       <c r="P302" s="6">
-        <v>3.9616452182689881</v>
+        <v>3.961645218268988</v>
       </c>
       <c r="Q302" s="6"/>
       <c r="R302" s="6">
-        <f t="shared" si="56"/>
-        <v>3.557910673732021</v>
-      </c>
-    </row>
-    <row r="303" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f>K302/J302*100</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="303" customHeight="1" ht="17.25">
       <c r="A303" s="4" t="s">
         <v>317</v>
       </c>
@@ -11390,27 +11176,25 @@
         <v>21304</v>
       </c>
       <c r="K303" s="5">
-        <f t="shared" si="55"/>
-        <v>17</v>
+        <f>SUM(C303+D303+F303)</f>
       </c>
       <c r="L303" s="6">
-        <v>1.8775816748028539E-2</v>
+        <v>0.01877581674802854</v>
       </c>
       <c r="M303" s="6"/>
       <c r="N303" s="6">
-        <v>6.1021404431092753E-2</v>
+        <v>0.06102140443109275</v>
       </c>
       <c r="O303" s="6">
-        <v>1.8775816748028539E-2</v>
+        <v>0.01877581674802854</v>
       </c>
       <c r="P303" s="6"/>
       <c r="Q303" s="6"/>
       <c r="R303" s="6">
-        <f t="shared" si="56"/>
-        <v>7.9797221179121289E-2</v>
-      </c>
-    </row>
-    <row r="304" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f>K303/J303*100</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="304" customHeight="1" ht="17.25">
       <c r="A304" s="4" t="s">
         <v>318</v>
       </c>
@@ -11434,29 +11218,27 @@
         <v>882</v>
       </c>
       <c r="K304" s="5">
-        <f t="shared" si="55"/>
-        <v>46</v>
+        <f>SUM(C304+D304+F304)</f>
       </c>
       <c r="L304" s="6"/>
       <c r="M304" s="6">
-        <v>1.7006802721088441</v>
+        <v>1.700680272108844</v>
       </c>
       <c r="N304" s="6">
-        <v>3.0612244897959182</v>
+        <v>3.061224489795918</v>
       </c>
       <c r="O304" s="6">
-        <v>0.45351473922902502</v>
+        <v>0.453514739229025</v>
       </c>
       <c r="P304" s="6">
-        <v>2.8344671201814058</v>
+        <v>2.834467120181406</v>
       </c>
       <c r="Q304" s="6"/>
       <c r="R304" s="6">
-        <f t="shared" si="56"/>
-        <v>5.2154195011337867</v>
-      </c>
-    </row>
-    <row r="305" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f>K304/J304*100</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="305" customHeight="1" ht="17.25">
       <c r="A305" s="4" t="s">
         <v>319</v>
       </c>
@@ -11477,14 +11259,14 @@
       <c r="L305" s="6"/>
       <c r="M305" s="6"/>
       <c r="N305" s="6">
-        <v>3.3355570380253503E-2</v>
+        <v>0.0333555703802535</v>
       </c>
       <c r="O305" s="6"/>
       <c r="P305" s="6"/>
       <c r="Q305" s="6"/>
       <c r="R305" s="6"/>
     </row>
-    <row r="306" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="306" customHeight="1" ht="17.25">
       <c r="A306" s="4" t="s">
         <v>320</v>
       </c>
@@ -11510,7 +11292,7 @@
       <c r="Q306" s="6"/>
       <c r="R306" s="6"/>
     </row>
-    <row r="307" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="307" customHeight="1" ht="17.25">
       <c r="A307" s="4" t="s">
         <v>321</v>
       </c>
@@ -11536,7 +11318,7 @@
       <c r="Q307" s="6"/>
       <c r="R307" s="6"/>
     </row>
-    <row r="308" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="308" customHeight="1" ht="17.25">
       <c r="A308" s="4" t="s">
         <v>322</v>
       </c>
@@ -11560,7 +11342,7 @@
       <c r="Q308" s="6"/>
       <c r="R308" s="6"/>
     </row>
-    <row r="309" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="309" customHeight="1" ht="17.25">
       <c r="A309" s="4" t="s">
         <v>323</v>
       </c>
@@ -11586,7 +11368,7 @@
       <c r="Q309" s="6"/>
       <c r="R309" s="6"/>
     </row>
-    <row r="310" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="310" customHeight="1" ht="17.25">
       <c r="A310" s="4" t="s">
         <v>324</v>
       </c>
@@ -11611,26 +11393,24 @@
       </c>
       <c r="K310" s="5">
         <f>SUM(C310+D310+F310)</f>
-        <v>534</v>
       </c>
       <c r="L310" s="6">
-        <v>2.8850203565913239</v>
+        <v>2.885020356591324</v>
       </c>
       <c r="M310" s="6">
-        <v>0.87041976695212686</v>
+        <v>0.8704197669521269</v>
       </c>
       <c r="N310" s="6">
-        <v>2.8780008423417098</v>
+        <v>2.87800084234171</v>
       </c>
       <c r="O310" s="6"/>
       <c r="P310" s="6"/>
       <c r="Q310" s="6"/>
       <c r="R310" s="6">
         <f>K310/J310*100</f>
-        <v>3.748420609293837</v>
-      </c>
-    </row>
-    <row r="311" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="311" customHeight="1" ht="17.25">
       <c r="A311" s="4" t="s">
         <v>325</v>
       </c>
@@ -11653,14 +11433,14 @@
       <c r="L311" s="6"/>
       <c r="M311" s="6"/>
       <c r="N311" s="6">
-        <v>0.30193236714975852</v>
+        <v>0.3019323671497585</v>
       </c>
       <c r="O311" s="6"/>
       <c r="P311" s="6"/>
       <c r="Q311" s="6"/>
       <c r="R311" s="6"/>
     </row>
-    <row r="312" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="312" customHeight="1" ht="17.25">
       <c r="A312" s="4" t="s">
         <v>326</v>
       </c>
@@ -11684,7 +11464,7 @@
       <c r="Q312" s="6"/>
       <c r="R312" s="6"/>
     </row>
-    <row r="313" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="313" customHeight="1" ht="17.25">
       <c r="A313" s="4" t="s">
         <v>327</v>
       </c>
@@ -11710,7 +11490,7 @@
       <c r="Q313" s="6"/>
       <c r="R313" s="6"/>
     </row>
-    <row r="314" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="314" customHeight="1" ht="17.25">
       <c r="A314" s="4" t="s">
         <v>328</v>
       </c>
@@ -11733,14 +11513,14 @@
       <c r="L314" s="6"/>
       <c r="M314" s="6"/>
       <c r="N314" s="6">
-        <v>7.4850299401197612E-2</v>
+        <v>0.07485029940119761</v>
       </c>
       <c r="O314" s="6"/>
       <c r="P314" s="6"/>
       <c r="Q314" s="6"/>
       <c r="R314" s="6"/>
     </row>
-    <row r="315" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="315" customHeight="1" ht="17.25">
       <c r="A315" s="4" t="s">
         <v>329</v>
       </c>
@@ -11764,7 +11544,7 @@
       <c r="Q315" s="6"/>
       <c r="R315" s="6"/>
     </row>
-    <row r="316" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="316" customHeight="1" ht="17.25">
       <c r="A316" s="4" t="s">
         <v>330</v>
       </c>
@@ -11788,7 +11568,7 @@
       <c r="Q316" s="6"/>
       <c r="R316" s="6"/>
     </row>
-    <row r="317" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="317" customHeight="1" ht="17.25">
       <c r="A317" s="4" t="s">
         <v>331</v>
       </c>
@@ -11811,24 +11591,22 @@
       </c>
       <c r="K317" s="5">
         <f>SUM(C317+D317+F317)</f>
-        <v>1</v>
       </c>
       <c r="L317" s="6"/>
       <c r="M317" s="6">
-        <v>4.4385264092321353E-2</v>
+        <v>0.04438526409232135</v>
       </c>
       <c r="N317" s="6"/>
       <c r="O317" s="6"/>
       <c r="P317" s="6">
-        <v>8.8770528184642691E-2</v>
+        <v>0.08877052818464269</v>
       </c>
       <c r="Q317" s="6"/>
       <c r="R317" s="6">
         <f>K317/J317*100</f>
-        <v>4.4385264092321346E-2</v>
-      </c>
-    </row>
-    <row r="318" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="318" customHeight="1" ht="17.25">
       <c r="A318" s="4" t="s">
         <v>332</v>
       </c>
@@ -11853,7 +11631,6 @@
       <c r="R318" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R318"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>